--- a/CurriculumManagementSystemWebAPI/QuizExported.xlsx
+++ b/CurriculumManagementSystemWebAPI/QuizExported.xlsx
@@ -6,7 +6,9 @@
   </bookViews>
   <sheets>
     <sheet name="Quiz 1" sheetId="1" r:id="rId1"/>
-    <sheet name="Quiz 3" sheetId="2" r:id="rId3"/>
+    <sheet name="Quiz 2" sheetId="2" r:id="rId3"/>
+    <sheet name="Quiz 3" sheetId="3" r:id="rId4"/>
+    <sheet name="Quiz 4" sheetId="4" r:id="rId5"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -289,6 +291,149 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:E9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="5" customWidth="1"/>
+    <col min="2" max="2" width="70" customWidth="1"/>
+    <col min="3" max="3" width="5" customWidth="1"/>
+    <col min="4" max="4" width="70" customWidth="1"/>
+    <col min="5" max="5" width="5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="3">
+        <v>1</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" s="2"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="3"/>
+      <c r="B3" s="3"/>
+      <c r="C3" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="2"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="3"/>
+      <c r="B4" s="3"/>
+      <c r="C4" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E4" s="2"/>
+    </row>
+    <row r="5">
+      <c r="A5" s="3"/>
+      <c r="B5" s="3"/>
+      <c r="C5" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="3">
+        <v>2</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E6" s="2"/>
+    </row>
+    <row r="7">
+      <c r="A7" s="3"/>
+      <c r="B7" s="3"/>
+      <c r="C7" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E7" s="2"/>
+    </row>
+    <row r="8">
+      <c r="A8" s="3"/>
+      <c r="B8" s="3"/>
+      <c r="C8" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E8" s="2"/>
+    </row>
+    <row r="9">
+      <c r="A9" s="3"/>
+      <c r="B9" s="3"/>
+      <c r="C9" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells>
+    <mergeCell ref="A2:A5"/>
+    <mergeCell ref="B2:B5"/>
+    <mergeCell ref="A6:A9"/>
+    <mergeCell ref="B6:B9"/>
+  </mergeCells>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -376,4 +521,95 @@
   </mergeCells>
   <headerFooter/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:E5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="5" customWidth="1"/>
+    <col min="2" max="2" width="70" customWidth="1"/>
+    <col min="3" max="3" width="5" customWidth="1"/>
+    <col min="4" max="4" width="70" customWidth="1"/>
+    <col min="5" max="5" width="5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="3">
+        <v>1</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E2" s="2"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="3"/>
+      <c r="B3" s="3"/>
+      <c r="C3" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E3" s="2"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="3"/>
+      <c r="B4" s="3"/>
+      <c r="C4" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E4" s="2"/>
+    </row>
+    <row r="5">
+      <c r="A5" s="3"/>
+      <c r="B5" s="3"/>
+      <c r="C5" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells>
+    <mergeCell ref="A2:A5"/>
+    <mergeCell ref="B2:B5"/>
+  </mergeCells>
+  <headerFooter/>
+</worksheet>
 </file>
--- a/CurriculumManagementSystemWebAPI/QuizExported.xlsx
+++ b/CurriculumManagementSystemWebAPI/QuizExported.xlsx
@@ -9,6 +9,8 @@
     <sheet name="Quiz 2" sheetId="2" r:id="rId3"/>
     <sheet name="Quiz 3" sheetId="3" r:id="rId4"/>
     <sheet name="Quiz 4" sheetId="4" r:id="rId5"/>
+    <sheet name="Quiz 5" sheetId="5" r:id="rId6"/>
+    <sheet name="Quiz 7" sheetId="6" r:id="rId7"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -612,4 +614,78 @@
   </mergeCells>
   <headerFooter/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:E1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="5" customWidth="1"/>
+    <col min="2" max="2" width="70" customWidth="1"/>
+    <col min="3" max="3" width="5" customWidth="1"/>
+    <col min="4" max="4" width="70" customWidth="1"/>
+    <col min="5" max="5" width="5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:E1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="5" customWidth="1"/>
+    <col min="2" max="2" width="70" customWidth="1"/>
+    <col min="3" max="3" width="5" customWidth="1"/>
+    <col min="4" max="4" width="70" customWidth="1"/>
+    <col min="5" max="5" width="5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <headerFooter/>
+</worksheet>
 </file>
--- a/CurriculumManagementSystemWebAPI/QuizExported.xlsx
+++ b/CurriculumManagementSystemWebAPI/QuizExported.xlsx
@@ -2106,7 +2106,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" applyFont="1" fillId="2" applyFill="1"/>
     <xf numFmtId="0" fontId="1" applyFont="1" fillId="2" applyFill="1" borderId="1" applyBorder="1" applyAlignment="1">
@@ -2118,8 +2118,23 @@
     <xf numFmtId="0" fontId="0" borderId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" borderId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" applyFont="1" borderId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" borderId="1" applyBorder="1" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" applyFont="1" borderId="1" applyBorder="1" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2140,7 +2155,7 @@
     <col min="1" max="1" width="5" customWidth="1"/>
     <col min="2" max="2" width="60" customWidth="1"/>
     <col min="3" max="3" width="6" customWidth="1"/>
-    <col min="4" max="4" width="60" customWidth="1"/>
+    <col min="4" max="4" width="60" customWidth="1" style="5"/>
     <col min="5" max="5" width="14" customWidth="1"/>
     <col min="6" max="6" width="10" customWidth="1"/>
   </cols>
@@ -2155,7 +2170,7 @@
       <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="6" t="s">
         <v>3</v>
       </c>
       <c r="E1" s="2" t="s">
@@ -2175,7 +2190,7 @@
       <c r="C2" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D2" s="8" t="s">
         <v>8</v>
       </c>
       <c r="E2" s="3"/>
@@ -2189,7 +2204,7 @@
       <c r="C3" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="D3" s="7" t="s">
         <v>10</v>
       </c>
       <c r="E3" s="3"/>
@@ -2201,7 +2216,7 @@
       <c r="C4" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="D4" s="7" t="s">
         <v>12</v>
       </c>
       <c r="E4" s="3"/>
@@ -2213,7 +2228,7 @@
       <c r="C5" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D5" s="4" t="s">
+      <c r="D5" s="7" t="s">
         <v>14</v>
       </c>
       <c r="E5" s="3" t="s">
@@ -2231,7 +2246,7 @@
       <c r="C6" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D6" s="4" t="s">
+      <c r="D6" s="9" t="s">
         <v>16</v>
       </c>
       <c r="E6" s="3"/>
@@ -2245,7 +2260,7 @@
       <c r="C7" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D7" s="4" t="s">
+      <c r="D7" s="9" t="s">
         <v>17</v>
       </c>
       <c r="E7" s="3"/>
@@ -2257,7 +2272,7 @@
       <c r="C8" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D8" s="4" t="s">
+      <c r="D8" s="9" t="s">
         <v>18</v>
       </c>
       <c r="E8" s="3"/>
@@ -2269,7 +2284,7 @@
       <c r="C9" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D9" s="5" t="s">
+      <c r="D9" s="10" t="s">
         <v>19</v>
       </c>
       <c r="E9" s="3" t="s">
@@ -2287,7 +2302,7 @@
       <c r="C10" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D10" s="4" t="s">
+      <c r="D10" s="9" t="s">
         <v>21</v>
       </c>
       <c r="E10" s="3"/>
@@ -2301,7 +2316,7 @@
       <c r="C11" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D11" s="4" t="s">
+      <c r="D11" s="9" t="s">
         <v>22</v>
       </c>
       <c r="E11" s="3"/>
@@ -2313,7 +2328,7 @@
       <c r="C12" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D12" s="5" t="s">
+      <c r="D12" s="10" t="s">
         <v>23</v>
       </c>
       <c r="E12" s="3"/>
@@ -2325,7 +2340,7 @@
       <c r="C13" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D13" s="4" t="s">
+      <c r="D13" s="9" t="s">
         <v>24</v>
       </c>
       <c r="E13" s="3" t="s">
@@ -2343,7 +2358,7 @@
       <c r="C14" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D14" s="4" t="s">
+      <c r="D14" s="9" t="s">
         <v>26</v>
       </c>
       <c r="E14" s="3"/>
@@ -2357,7 +2372,7 @@
       <c r="C15" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D15" s="4" t="s">
+      <c r="D15" s="9" t="s">
         <v>27</v>
       </c>
       <c r="E15" s="3"/>
@@ -2369,7 +2384,7 @@
       <c r="C16" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D16" s="5" t="s">
+      <c r="D16" s="10" t="s">
         <v>28</v>
       </c>
       <c r="E16" s="3"/>
@@ -2381,7 +2396,7 @@
       <c r="C17" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D17" s="4" t="s">
+      <c r="D17" s="9" t="s">
         <v>29</v>
       </c>
       <c r="E17" s="3" t="s">
@@ -2399,7 +2414,7 @@
       <c r="C18" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D18" s="4" t="s">
+      <c r="D18" s="9" t="s">
         <v>31</v>
       </c>
       <c r="E18" s="3"/>
@@ -2413,7 +2428,7 @@
       <c r="C19" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D19" s="4" t="s">
+      <c r="D19" s="9" t="s">
         <v>32</v>
       </c>
       <c r="E19" s="3"/>
@@ -2425,7 +2440,7 @@
       <c r="C20" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D20" s="4" t="s">
+      <c r="D20" s="9" t="s">
         <v>33</v>
       </c>
       <c r="E20" s="3"/>
@@ -2437,7 +2452,7 @@
       <c r="C21" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D21" s="5" t="s">
+      <c r="D21" s="10" t="s">
         <v>34</v>
       </c>
       <c r="E21" s="3" t="s">
@@ -2455,7 +2470,7 @@
       <c r="C22" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D22" s="5" t="s">
+      <c r="D22" s="10" t="s">
         <v>36</v>
       </c>
       <c r="E22" s="3"/>
@@ -2469,7 +2484,7 @@
       <c r="C23" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D23" s="4" t="s">
+      <c r="D23" s="9" t="s">
         <v>37</v>
       </c>
       <c r="E23" s="3"/>
@@ -2481,7 +2496,7 @@
       <c r="C24" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D24" s="4" t="s">
+      <c r="D24" s="9" t="s">
         <v>38</v>
       </c>
       <c r="E24" s="3"/>
@@ -2493,7 +2508,7 @@
       <c r="C25" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D25" s="4" t="s">
+      <c r="D25" s="9" t="s">
         <v>39</v>
       </c>
       <c r="E25" s="3" t="s">
@@ -2511,7 +2526,7 @@
       <c r="C26" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D26" s="5" t="s">
+      <c r="D26" s="10" t="s">
         <v>16</v>
       </c>
       <c r="E26" s="3"/>
@@ -2525,7 +2540,7 @@
       <c r="C27" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D27" s="4" t="s">
+      <c r="D27" s="9" t="s">
         <v>17</v>
       </c>
       <c r="E27" s="3"/>
@@ -2537,7 +2552,7 @@
       <c r="C28" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D28" s="4" t="s">
+      <c r="D28" s="9" t="s">
         <v>19</v>
       </c>
       <c r="E28" s="3"/>
@@ -2549,7 +2564,7 @@
       <c r="C29" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D29" s="4" t="s">
+      <c r="D29" s="9" t="s">
         <v>18</v>
       </c>
       <c r="E29" s="3" t="s">
@@ -2567,7 +2582,7 @@
       <c r="C30" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D30" s="4" t="s">
+      <c r="D30" s="9" t="s">
         <v>42</v>
       </c>
       <c r="E30" s="3"/>
@@ -2581,7 +2596,7 @@
       <c r="C31" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D31" s="4" t="s">
+      <c r="D31" s="9" t="s">
         <v>43</v>
       </c>
       <c r="E31" s="3"/>
@@ -2593,7 +2608,7 @@
       <c r="C32" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D32" s="4" t="s">
+      <c r="D32" s="9" t="s">
         <v>44</v>
       </c>
       <c r="E32" s="3"/>
@@ -2605,7 +2620,7 @@
       <c r="C33" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D33" s="5" t="s">
+      <c r="D33" s="10" t="s">
         <v>45</v>
       </c>
       <c r="E33" s="3" t="s">
@@ -2623,7 +2638,7 @@
       <c r="C34" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D34" s="4" t="s">
+      <c r="D34" s="9" t="s">
         <v>16</v>
       </c>
       <c r="E34" s="3"/>
@@ -2637,7 +2652,7 @@
       <c r="C35" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D35" s="4" t="s">
+      <c r="D35" s="9" t="s">
         <v>17</v>
       </c>
       <c r="E35" s="3"/>
@@ -2649,7 +2664,7 @@
       <c r="C36" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D36" s="5" t="s">
+      <c r="D36" s="10" t="s">
         <v>19</v>
       </c>
       <c r="E36" s="3"/>
@@ -2661,7 +2676,7 @@
       <c r="C37" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D37" s="4" t="s">
+      <c r="D37" s="9" t="s">
         <v>18</v>
       </c>
       <c r="E37" s="3" t="s">
@@ -2679,7 +2694,7 @@
       <c r="C38" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D38" s="4" t="s">
+      <c r="D38" s="9" t="s">
         <v>48</v>
       </c>
       <c r="E38" s="3"/>
@@ -2693,7 +2708,7 @@
       <c r="C39" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D39" s="4" t="s">
+      <c r="D39" s="9" t="s">
         <v>49</v>
       </c>
       <c r="E39" s="3"/>
@@ -2705,7 +2720,7 @@
       <c r="C40" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D40" s="4" t="s">
+      <c r="D40" s="9" t="s">
         <v>50</v>
       </c>
       <c r="E40" s="3"/>
@@ -2717,7 +2732,7 @@
       <c r="C41" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D41" s="5" t="s">
+      <c r="D41" s="10" t="s">
         <v>45</v>
       </c>
       <c r="E41" s="3" t="s">
@@ -2735,7 +2750,7 @@
       <c r="C42" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D42" s="4" t="s">
+      <c r="D42" s="9" t="s">
         <v>11</v>
       </c>
       <c r="E42" s="3"/>
@@ -2749,7 +2764,7 @@
       <c r="C43" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D43" s="4" t="s">
+      <c r="D43" s="9" t="s">
         <v>52</v>
       </c>
       <c r="E43" s="3"/>
@@ -2761,7 +2776,7 @@
       <c r="C44" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D44" s="4" t="s">
+      <c r="D44" s="9" t="s">
         <v>53</v>
       </c>
       <c r="E44" s="3"/>
@@ -2773,7 +2788,7 @@
       <c r="C45" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D45" s="5" t="s">
+      <c r="D45" s="10" t="s">
         <v>54</v>
       </c>
       <c r="E45" s="3" t="s">
@@ -2791,7 +2806,7 @@
       <c r="C46" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D46" s="4" t="s">
+      <c r="D46" s="9" t="s">
         <v>56</v>
       </c>
       <c r="E46" s="3"/>
@@ -2805,7 +2820,7 @@
       <c r="C47" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D47" s="4" t="s">
+      <c r="D47" s="9" t="s">
         <v>57</v>
       </c>
       <c r="E47" s="3"/>
@@ -2817,7 +2832,7 @@
       <c r="C48" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D48" s="4" t="s">
+      <c r="D48" s="9" t="s">
         <v>58</v>
       </c>
       <c r="E48" s="3"/>
@@ -2829,7 +2844,7 @@
       <c r="C49" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D49" s="5" t="s">
+      <c r="D49" s="10" t="s">
         <v>45</v>
       </c>
       <c r="E49" s="3" t="s">
@@ -2847,7 +2862,7 @@
       <c r="C50" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D50" s="5" t="s">
+      <c r="D50" s="10" t="s">
         <v>31</v>
       </c>
       <c r="E50" s="3"/>
@@ -2861,7 +2876,7 @@
       <c r="C51" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D51" s="4" t="s">
+      <c r="D51" s="9" t="s">
         <v>60</v>
       </c>
       <c r="E51" s="3"/>
@@ -2873,7 +2888,7 @@
       <c r="C52" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D52" s="4" t="s">
+      <c r="D52" s="9" t="s">
         <v>33</v>
       </c>
       <c r="E52" s="3"/>
@@ -2885,7 +2900,7 @@
       <c r="C53" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D53" s="4" t="s">
+      <c r="D53" s="9" t="s">
         <v>61</v>
       </c>
       <c r="E53" s="3" t="s">
@@ -2903,7 +2918,7 @@
       <c r="C54" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D54" s="4" t="s">
+      <c r="D54" s="9" t="s">
         <v>16</v>
       </c>
       <c r="E54" s="3"/>
@@ -2917,7 +2932,7 @@
       <c r="C55" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D55" s="4" t="s">
+      <c r="D55" s="9" t="s">
         <v>17</v>
       </c>
       <c r="E55" s="3"/>
@@ -2929,7 +2944,7 @@
       <c r="C56" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D56" s="4" t="s">
+      <c r="D56" s="9" t="s">
         <v>19</v>
       </c>
       <c r="E56" s="3"/>
@@ -2941,7 +2956,7 @@
       <c r="C57" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D57" s="5" t="s">
+      <c r="D57" s="10" t="s">
         <v>18</v>
       </c>
       <c r="E57" s="3" t="s">
@@ -2959,7 +2974,7 @@
       <c r="C58" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D58" s="4" t="s">
+      <c r="D58" s="9" t="s">
         <v>16</v>
       </c>
       <c r="E58" s="3"/>
@@ -2973,7 +2988,7 @@
       <c r="C59" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D59" s="4" t="s">
+      <c r="D59" s="9" t="s">
         <v>17</v>
       </c>
       <c r="E59" s="3"/>
@@ -2985,7 +3000,7 @@
       <c r="C60" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D60" s="5" t="s">
+      <c r="D60" s="10" t="s">
         <v>19</v>
       </c>
       <c r="E60" s="3"/>
@@ -2997,7 +3012,7 @@
       <c r="C61" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D61" s="4" t="s">
+      <c r="D61" s="9" t="s">
         <v>18</v>
       </c>
       <c r="E61" s="3" t="s">
@@ -3015,7 +3030,7 @@
       <c r="C62" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D62" s="5" t="s">
+      <c r="D62" s="10" t="s">
         <v>65</v>
       </c>
       <c r="E62" s="3"/>
@@ -3029,7 +3044,7 @@
       <c r="C63" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D63" s="5" t="s">
+      <c r="D63" s="10" t="s">
         <v>66</v>
       </c>
       <c r="E63" s="3"/>
@@ -3041,7 +3056,7 @@
       <c r="C64" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D64" s="4" t="s">
+      <c r="D64" s="9" t="s">
         <v>67</v>
       </c>
       <c r="E64" s="3"/>
@@ -3053,7 +3068,7 @@
       <c r="C65" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D65" s="4" t="s">
+      <c r="D65" s="9" t="s">
         <v>68</v>
       </c>
       <c r="E65" s="3" t="s">
@@ -3071,7 +3086,7 @@
       <c r="C66" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D66" s="4" t="s">
+      <c r="D66" s="9" t="s">
         <v>71</v>
       </c>
       <c r="E66" s="3"/>
@@ -3085,7 +3100,7 @@
       <c r="C67" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D67" s="4" t="s">
+      <c r="D67" s="9" t="s">
         <v>66</v>
       </c>
       <c r="E67" s="3"/>
@@ -3097,7 +3112,7 @@
       <c r="C68" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D68" s="4" t="s">
+      <c r="D68" s="9" t="s">
         <v>67</v>
       </c>
       <c r="E68" s="3"/>
@@ -3109,7 +3124,7 @@
       <c r="C69" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D69" s="5" t="s">
+      <c r="D69" s="10" t="s">
         <v>68</v>
       </c>
       <c r="E69" s="3" t="s">
@@ -3227,7 +3242,7 @@
     <col min="1" max="1" width="5" customWidth="1"/>
     <col min="2" max="2" width="60" customWidth="1"/>
     <col min="3" max="3" width="6" customWidth="1"/>
-    <col min="4" max="4" width="60" customWidth="1"/>
+    <col min="4" max="4" width="60" customWidth="1" style="5"/>
     <col min="5" max="5" width="14" customWidth="1"/>
     <col min="6" max="6" width="10" customWidth="1"/>
   </cols>
@@ -3242,7 +3257,7 @@
       <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="6" t="s">
         <v>3</v>
       </c>
       <c r="E1" s="2" t="s">
@@ -3262,7 +3277,7 @@
       <c r="C2" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D2" s="8" t="s">
         <v>73</v>
       </c>
       <c r="E2" s="3"/>
@@ -3276,7 +3291,7 @@
       <c r="C3" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="D3" s="7" t="s">
         <v>74</v>
       </c>
       <c r="E3" s="3"/>
@@ -3288,7 +3303,7 @@
       <c r="C4" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="D4" s="7" t="s">
         <v>75</v>
       </c>
       <c r="E4" s="3"/>
@@ -3300,7 +3315,7 @@
       <c r="C5" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D5" s="4" t="s">
+      <c r="D5" s="7" t="s">
         <v>76</v>
       </c>
       <c r="E5" s="3" t="s">
@@ -3318,7 +3333,7 @@
       <c r="C6" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D6" s="4" t="s">
+      <c r="D6" s="9" t="s">
         <v>78</v>
       </c>
       <c r="E6" s="3"/>
@@ -3332,7 +3347,7 @@
       <c r="C7" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D7" s="4" t="s">
+      <c r="D7" s="9" t="s">
         <v>79</v>
       </c>
       <c r="E7" s="3"/>
@@ -3344,7 +3359,7 @@
       <c r="C8" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D8" s="5" t="s">
+      <c r="D8" s="10" t="s">
         <v>80</v>
       </c>
       <c r="E8" s="3"/>
@@ -3356,7 +3371,7 @@
       <c r="C9" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D9" s="4" t="s">
+      <c r="D9" s="9" t="s">
         <v>81</v>
       </c>
       <c r="E9" s="3" t="s">
@@ -3374,7 +3389,7 @@
       <c r="C10" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D10" s="4" t="s">
+      <c r="D10" s="9" t="s">
         <v>83</v>
       </c>
       <c r="E10" s="3"/>
@@ -3388,7 +3403,7 @@
       <c r="C11" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D11" s="5" t="s">
+      <c r="D11" s="10" t="s">
         <v>84</v>
       </c>
       <c r="E11" s="3"/>
@@ -3400,7 +3415,7 @@
       <c r="C12" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D12" s="4" t="s">
+      <c r="D12" s="9" t="s">
         <v>85</v>
       </c>
       <c r="E12" s="3"/>
@@ -3412,7 +3427,7 @@
       <c r="C13" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D13" s="4" t="s">
+      <c r="D13" s="9" t="s">
         <v>86</v>
       </c>
       <c r="E13" s="3" t="s">
@@ -3430,7 +3445,7 @@
       <c r="C14" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D14" s="5" t="s">
+      <c r="D14" s="10" t="s">
         <v>21</v>
       </c>
       <c r="E14" s="3"/>
@@ -3444,7 +3459,7 @@
       <c r="C15" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D15" s="4" t="s">
+      <c r="D15" s="9" t="s">
         <v>24</v>
       </c>
       <c r="E15" s="3"/>
@@ -3456,7 +3471,7 @@
       <c r="C16" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D16" s="4" t="s">
+      <c r="D16" s="9" t="s">
         <v>88</v>
       </c>
       <c r="E16" s="3"/>
@@ -3468,7 +3483,7 @@
       <c r="C17" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D17" s="4" t="s">
+      <c r="D17" s="9" t="s">
         <v>22</v>
       </c>
       <c r="E17" s="3" t="s">
@@ -3486,7 +3501,7 @@
       <c r="C18" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D18" s="5" t="s">
+      <c r="D18" s="10" t="s">
         <v>90</v>
       </c>
       <c r="E18" s="3"/>
@@ -3500,7 +3515,7 @@
       <c r="C19" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D19" s="4" t="s">
+      <c r="D19" s="9" t="s">
         <v>91</v>
       </c>
       <c r="E19" s="3"/>
@@ -3512,7 +3527,7 @@
       <c r="C20" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D20" s="4" t="s">
+      <c r="D20" s="9" t="s">
         <v>92</v>
       </c>
       <c r="E20" s="3"/>
@@ -3524,7 +3539,7 @@
       <c r="C21" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D21" s="4" t="s">
+      <c r="D21" s="9" t="s">
         <v>93</v>
       </c>
       <c r="E21" s="3" t="s">
@@ -3542,7 +3557,7 @@
       <c r="C22" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D22" s="5" t="s">
+      <c r="D22" s="10" t="s">
         <v>95</v>
       </c>
       <c r="E22" s="3"/>
@@ -3556,7 +3571,7 @@
       <c r="C23" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D23" s="4" t="s">
+      <c r="D23" s="9" t="s">
         <v>96</v>
       </c>
       <c r="E23" s="3"/>
@@ -3568,7 +3583,7 @@
       <c r="C24" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D24" s="4" t="s">
+      <c r="D24" s="9" t="s">
         <v>21</v>
       </c>
       <c r="E24" s="3"/>
@@ -3580,7 +3595,7 @@
       <c r="C25" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D25" s="4" t="s">
+      <c r="D25" s="9" t="s">
         <v>22</v>
       </c>
       <c r="E25" s="3" t="s">
@@ -3598,7 +3613,7 @@
       <c r="C26" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D26" s="4" t="s">
+      <c r="D26" s="9" t="s">
         <v>21</v>
       </c>
       <c r="E26" s="3"/>
@@ -3612,7 +3627,7 @@
       <c r="C27" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D27" s="5" t="s">
+      <c r="D27" s="10" t="s">
         <v>98</v>
       </c>
       <c r="E27" s="3"/>
@@ -3624,7 +3639,7 @@
       <c r="C28" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D28" s="4" t="s">
+      <c r="D28" s="9" t="s">
         <v>88</v>
       </c>
       <c r="E28" s="3"/>
@@ -3636,7 +3651,7 @@
       <c r="C29" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D29" s="4" t="s">
+      <c r="D29" s="9" t="s">
         <v>22</v>
       </c>
       <c r="E29" s="3" t="s">
@@ -3654,7 +3669,7 @@
       <c r="C30" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D30" s="5" t="s">
+      <c r="D30" s="10" t="s">
         <v>100</v>
       </c>
       <c r="E30" s="3"/>
@@ -3668,7 +3683,7 @@
       <c r="C31" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D31" s="4" t="s">
+      <c r="D31" s="9" t="s">
         <v>24</v>
       </c>
       <c r="E31" s="3"/>
@@ -3680,7 +3695,7 @@
       <c r="C32" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D32" s="4" t="s">
+      <c r="D32" s="9" t="s">
         <v>22</v>
       </c>
       <c r="E32" s="3"/>
@@ -3692,7 +3707,7 @@
       <c r="C33" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D33" s="4" t="s">
+      <c r="D33" s="9" t="s">
         <v>95</v>
       </c>
       <c r="E33" s="3" t="s">
@@ -3710,7 +3725,7 @@
       <c r="C34" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D34" s="5" t="s">
+      <c r="D34" s="10" t="s">
         <v>22</v>
       </c>
       <c r="E34" s="3"/>
@@ -3724,7 +3739,7 @@
       <c r="C35" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D35" s="4" t="s">
+      <c r="D35" s="9" t="s">
         <v>24</v>
       </c>
       <c r="E35" s="3"/>
@@ -3736,7 +3751,7 @@
       <c r="C36" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D36" s="4" t="s">
+      <c r="D36" s="9" t="s">
         <v>95</v>
       </c>
       <c r="E36" s="3"/>
@@ -3748,7 +3763,7 @@
       <c r="C37" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D37" s="4" t="s">
+      <c r="D37" s="9" t="s">
         <v>102</v>
       </c>
       <c r="E37" s="3" t="s">
@@ -3766,7 +3781,7 @@
       <c r="C38" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D38" s="4" t="s">
+      <c r="D38" s="9" t="s">
         <v>104</v>
       </c>
       <c r="E38" s="3"/>
@@ -3780,7 +3795,7 @@
       <c r="C39" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D39" s="4" t="s">
+      <c r="D39" s="9" t="s">
         <v>105</v>
       </c>
       <c r="E39" s="3"/>
@@ -3792,7 +3807,7 @@
       <c r="C40" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D40" s="5" t="s">
+      <c r="D40" s="10" t="s">
         <v>106</v>
       </c>
       <c r="E40" s="3"/>
@@ -3804,7 +3819,7 @@
       <c r="C41" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D41" s="4" t="s">
+      <c r="D41" s="9" t="s">
         <v>107</v>
       </c>
       <c r="E41" s="3" t="s">
@@ -3822,7 +3837,7 @@
       <c r="C42" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D42" s="4" t="s">
+      <c r="D42" s="9" t="s">
         <v>109</v>
       </c>
       <c r="E42" s="3"/>
@@ -3836,7 +3851,7 @@
       <c r="C43" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D43" s="4" t="s">
+      <c r="D43" s="9" t="s">
         <v>110</v>
       </c>
       <c r="E43" s="3"/>
@@ -3848,7 +3863,7 @@
       <c r="C44" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D44" s="5" t="s">
+      <c r="D44" s="10" t="s">
         <v>111</v>
       </c>
       <c r="E44" s="3"/>
@@ -3860,7 +3875,7 @@
       <c r="C45" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D45" s="4" t="s">
+      <c r="D45" s="9" t="s">
         <v>112</v>
       </c>
       <c r="E45" s="3" t="s">
@@ -3878,7 +3893,7 @@
       <c r="C46" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D46" s="4" t="s">
+      <c r="D46" s="9" t="s">
         <v>114</v>
       </c>
       <c r="E46" s="3"/>
@@ -3892,7 +3907,7 @@
       <c r="C47" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D47" s="4" t="s">
+      <c r="D47" s="9" t="s">
         <v>115</v>
       </c>
       <c r="E47" s="3"/>
@@ -3904,7 +3919,7 @@
       <c r="C48" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D48" s="5" t="s">
+      <c r="D48" s="10" t="s">
         <v>116</v>
       </c>
       <c r="E48" s="3"/>
@@ -3916,7 +3931,7 @@
       <c r="C49" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D49" s="4" t="s">
+      <c r="D49" s="9" t="s">
         <v>117</v>
       </c>
       <c r="E49" s="3" t="s">
@@ -3934,7 +3949,7 @@
       <c r="C50" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D50" s="4" t="s">
+      <c r="D50" s="9" t="s">
         <v>119</v>
       </c>
       <c r="E50" s="3"/>
@@ -3948,7 +3963,7 @@
       <c r="C51" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D51" s="4" t="s">
+      <c r="D51" s="9" t="s">
         <v>120</v>
       </c>
       <c r="E51" s="3"/>
@@ -3960,7 +3975,7 @@
       <c r="C52" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D52" s="5" t="s">
+      <c r="D52" s="10" t="s">
         <v>121</v>
       </c>
       <c r="E52" s="3"/>
@@ -3972,7 +3987,7 @@
       <c r="C53" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D53" s="4" t="s">
+      <c r="D53" s="9" t="s">
         <v>122</v>
       </c>
       <c r="E53" s="3" t="s">
@@ -3990,7 +4005,7 @@
       <c r="C54" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D54" s="5" t="s">
+      <c r="D54" s="10" t="s">
         <v>124</v>
       </c>
       <c r="E54" s="3"/>
@@ -4004,7 +4019,7 @@
       <c r="C55" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D55" s="4" t="s">
+      <c r="D55" s="9" t="s">
         <v>125</v>
       </c>
       <c r="E55" s="3"/>
@@ -4016,7 +4031,7 @@
       <c r="C56" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D56" s="4" t="s">
+      <c r="D56" s="9" t="s">
         <v>126</v>
       </c>
       <c r="E56" s="3"/>
@@ -4028,7 +4043,7 @@
       <c r="C57" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D57" s="4" t="s">
+      <c r="D57" s="9" t="s">
         <v>127</v>
       </c>
       <c r="E57" s="3" t="s">
@@ -4046,7 +4061,7 @@
       <c r="C58" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D58" s="4" t="s">
+      <c r="D58" s="9" t="s">
         <v>129</v>
       </c>
       <c r="E58" s="3"/>
@@ -4060,7 +4075,7 @@
       <c r="C59" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D59" s="4" t="s">
+      <c r="D59" s="9" t="s">
         <v>130</v>
       </c>
       <c r="E59" s="3"/>
@@ -4072,7 +4087,7 @@
       <c r="C60" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D60" s="4" t="s">
+      <c r="D60" s="9" t="s">
         <v>131</v>
       </c>
       <c r="E60" s="3"/>
@@ -4084,7 +4099,7 @@
       <c r="C61" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D61" s="5" t="s">
+      <c r="D61" s="10" t="s">
         <v>45</v>
       </c>
       <c r="E61" s="3" t="s">
@@ -4102,7 +4117,7 @@
       <c r="C62" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D62" s="5" t="s">
+      <c r="D62" s="10" t="s">
         <v>129</v>
       </c>
       <c r="E62" s="3"/>
@@ -4116,7 +4131,7 @@
       <c r="C63" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D63" s="4" t="s">
+      <c r="D63" s="9" t="s">
         <v>130</v>
       </c>
       <c r="E63" s="3"/>
@@ -4128,7 +4143,7 @@
       <c r="C64" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D64" s="4" t="s">
+      <c r="D64" s="9" t="s">
         <v>131</v>
       </c>
       <c r="E64" s="3"/>
@@ -4140,7 +4155,7 @@
       <c r="C65" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D65" s="4" t="s">
+      <c r="D65" s="9" t="s">
         <v>133</v>
       </c>
       <c r="E65" s="3" t="s">
@@ -4214,7 +4229,7 @@
     <col min="1" max="1" width="5" customWidth="1"/>
     <col min="2" max="2" width="60" customWidth="1"/>
     <col min="3" max="3" width="6" customWidth="1"/>
-    <col min="4" max="4" width="60" customWidth="1"/>
+    <col min="4" max="4" width="60" customWidth="1" style="5"/>
     <col min="5" max="5" width="14" customWidth="1"/>
     <col min="6" max="6" width="10" customWidth="1"/>
   </cols>
@@ -4229,7 +4244,7 @@
       <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="6" t="s">
         <v>3</v>
       </c>
       <c r="E1" s="2" t="s">
@@ -4249,7 +4264,7 @@
       <c r="C2" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D2" s="8" t="s">
         <v>135</v>
       </c>
       <c r="E2" s="3"/>
@@ -4263,7 +4278,7 @@
       <c r="C3" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="D3" s="7" t="s">
         <v>136</v>
       </c>
       <c r="E3" s="3"/>
@@ -4275,7 +4290,7 @@
       <c r="C4" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="D4" s="7" t="s">
         <v>137</v>
       </c>
       <c r="E4" s="3"/>
@@ -4287,7 +4302,7 @@
       <c r="C5" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D5" s="4" t="s">
+      <c r="D5" s="7" t="s">
         <v>138</v>
       </c>
       <c r="E5" s="3" t="s">
@@ -4305,7 +4320,7 @@
       <c r="C6" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D6" s="4" t="s">
+      <c r="D6" s="9" t="s">
         <v>140</v>
       </c>
       <c r="E6" s="3"/>
@@ -4319,7 +4334,7 @@
       <c r="C7" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D7" s="4" t="s">
+      <c r="D7" s="9" t="s">
         <v>141</v>
       </c>
       <c r="E7" s="3"/>
@@ -4331,7 +4346,7 @@
       <c r="C8" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D8" s="4" t="s">
+      <c r="D8" s="9" t="s">
         <v>142</v>
       </c>
       <c r="E8" s="3"/>
@@ -4343,7 +4358,7 @@
       <c r="C9" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D9" s="5" t="s">
+      <c r="D9" s="10" t="s">
         <v>143</v>
       </c>
       <c r="E9" s="3" t="s">
@@ -4361,7 +4376,7 @@
       <c r="C10" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D10" s="4" t="s">
+      <c r="D10" s="9" t="s">
         <v>145</v>
       </c>
       <c r="E10" s="3"/>
@@ -4375,7 +4390,7 @@
       <c r="C11" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D11" s="4" t="s">
+      <c r="D11" s="9" t="s">
         <v>146</v>
       </c>
       <c r="E11" s="3"/>
@@ -4387,7 +4402,7 @@
       <c r="C12" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D12" s="4" t="s">
+      <c r="D12" s="9" t="s">
         <v>147</v>
       </c>
       <c r="E12" s="3"/>
@@ -4399,7 +4414,7 @@
       <c r="C13" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D13" s="5" t="s">
+      <c r="D13" s="10" t="s">
         <v>45</v>
       </c>
       <c r="E13" s="3" t="s">
@@ -4417,7 +4432,7 @@
       <c r="C14" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D14" s="4" t="s">
+      <c r="D14" s="9" t="s">
         <v>149</v>
       </c>
       <c r="E14" s="3"/>
@@ -4431,7 +4446,7 @@
       <c r="C15" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D15" s="4" t="s">
+      <c r="D15" s="9" t="s">
         <v>150</v>
       </c>
       <c r="E15" s="3"/>
@@ -4443,7 +4458,7 @@
       <c r="C16" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D16" s="5" t="s">
+      <c r="D16" s="10" t="s">
         <v>151</v>
       </c>
       <c r="E16" s="3"/>
@@ -4455,7 +4470,7 @@
       <c r="C17" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D17" s="4" t="s">
+      <c r="D17" s="9" t="s">
         <v>152</v>
       </c>
       <c r="E17" s="3" t="s">
@@ -4473,7 +4488,7 @@
       <c r="C18" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D18" s="4" t="s">
+      <c r="D18" s="9" t="s">
         <v>135</v>
       </c>
       <c r="E18" s="3"/>
@@ -4487,7 +4502,7 @@
       <c r="C19" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D19" s="5" t="s">
+      <c r="D19" s="10" t="s">
         <v>136</v>
       </c>
       <c r="E19" s="3"/>
@@ -4499,7 +4514,7 @@
       <c r="C20" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D20" s="4" t="s">
+      <c r="D20" s="9" t="s">
         <v>154</v>
       </c>
       <c r="E20" s="3"/>
@@ -4511,7 +4526,7 @@
       <c r="C21" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D21" s="4" t="s">
+      <c r="D21" s="9" t="s">
         <v>155</v>
       </c>
       <c r="E21" s="3" t="s">
@@ -4529,7 +4544,7 @@
       <c r="C22" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D22" s="4" t="s">
+      <c r="D22" s="9" t="s">
         <v>157</v>
       </c>
       <c r="E22" s="3"/>
@@ -4543,7 +4558,7 @@
       <c r="C23" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D23" s="5" t="s">
+      <c r="D23" s="10" t="s">
         <v>158</v>
       </c>
       <c r="E23" s="3"/>
@@ -4555,7 +4570,7 @@
       <c r="C24" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D24" s="4" t="s">
+      <c r="D24" s="9" t="s">
         <v>116</v>
       </c>
       <c r="E24" s="3"/>
@@ -4567,7 +4582,7 @@
       <c r="C25" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D25" s="4" t="s">
+      <c r="D25" s="9" t="s">
         <v>117</v>
       </c>
       <c r="E25" s="3" t="s">
@@ -4585,7 +4600,7 @@
       <c r="C26" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D26" s="5" t="s">
+      <c r="D26" s="10" t="s">
         <v>151</v>
       </c>
       <c r="E26" s="3"/>
@@ -4599,7 +4614,7 @@
       <c r="C27" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D27" s="4" t="s">
+      <c r="D27" s="9" t="s">
         <v>160</v>
       </c>
       <c r="E27" s="3"/>
@@ -4611,7 +4626,7 @@
       <c r="C28" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D28" s="4" t="s">
+      <c r="D28" s="9" t="s">
         <v>150</v>
       </c>
       <c r="E28" s="3"/>
@@ -4623,7 +4638,7 @@
       <c r="C29" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D29" s="4" t="s">
+      <c r="D29" s="9" t="s">
         <v>161</v>
       </c>
       <c r="E29" s="3" t="s">
@@ -4641,7 +4656,7 @@
       <c r="C30" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D30" s="4" t="s">
+      <c r="D30" s="9" t="s">
         <v>163</v>
       </c>
       <c r="E30" s="3"/>
@@ -4655,7 +4670,7 @@
       <c r="C31" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D31" s="5" t="s">
+      <c r="D31" s="10" t="s">
         <v>164</v>
       </c>
       <c r="E31" s="3"/>
@@ -4667,7 +4682,7 @@
       <c r="C32" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D32" s="4" t="s">
+      <c r="D32" s="9" t="s">
         <v>165</v>
       </c>
       <c r="E32" s="3"/>
@@ -4679,7 +4694,7 @@
       <c r="C33" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D33" s="4" t="s">
+      <c r="D33" s="9" t="s">
         <v>166</v>
       </c>
       <c r="E33" s="3" t="s">
@@ -4697,7 +4712,7 @@
       <c r="C34" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D34" s="4" t="s">
+      <c r="D34" s="9" t="s">
         <v>151</v>
       </c>
       <c r="E34" s="3"/>
@@ -4711,7 +4726,7 @@
       <c r="C35" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D35" s="4" t="s">
+      <c r="D35" s="9" t="s">
         <v>160</v>
       </c>
       <c r="E35" s="3"/>
@@ -4723,7 +4738,7 @@
       <c r="C36" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D36" s="4" t="s">
+      <c r="D36" s="9" t="s">
         <v>150</v>
       </c>
       <c r="E36" s="3"/>
@@ -4735,7 +4750,7 @@
       <c r="C37" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D37" s="5" t="s">
+      <c r="D37" s="10" t="s">
         <v>161</v>
       </c>
       <c r="E37" s="3" t="s">
@@ -4753,7 +4768,7 @@
       <c r="C38" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D38" s="4" t="s">
+      <c r="D38" s="9" t="s">
         <v>169</v>
       </c>
       <c r="E38" s="3"/>
@@ -4767,7 +4782,7 @@
       <c r="C39" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D39" s="4" t="s">
+      <c r="D39" s="9" t="s">
         <v>170</v>
       </c>
       <c r="E39" s="3"/>
@@ -4779,7 +4794,7 @@
       <c r="C40" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D40" s="4" t="s">
+      <c r="D40" s="9" t="s">
         <v>171</v>
       </c>
       <c r="E40" s="3"/>
@@ -4791,7 +4806,7 @@
       <c r="C41" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D41" s="5" t="s">
+      <c r="D41" s="10" t="s">
         <v>172</v>
       </c>
       <c r="E41" s="3" t="s">
@@ -4809,7 +4824,7 @@
       <c r="C42" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D42" s="5" t="s">
+      <c r="D42" s="10" t="s">
         <v>174</v>
       </c>
       <c r="E42" s="3"/>
@@ -4823,7 +4838,7 @@
       <c r="C43" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D43" s="4" t="s">
+      <c r="D43" s="9" t="s">
         <v>175</v>
       </c>
       <c r="E43" s="3"/>
@@ -4835,7 +4850,7 @@
       <c r="C44" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D44" s="4" t="s">
+      <c r="D44" s="9" t="s">
         <v>116</v>
       </c>
       <c r="E44" s="3"/>
@@ -4847,7 +4862,7 @@
       <c r="C45" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D45" s="4" t="s">
+      <c r="D45" s="9" t="s">
         <v>117</v>
       </c>
       <c r="E45" s="3" t="s">
@@ -4865,7 +4880,7 @@
       <c r="C46" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D46" s="4" t="s">
+      <c r="D46" s="9" t="s">
         <v>177</v>
       </c>
       <c r="E46" s="3"/>
@@ -4879,7 +4894,7 @@
       <c r="C47" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D47" s="4" t="s">
+      <c r="D47" s="9" t="s">
         <v>133</v>
       </c>
       <c r="E47" s="3"/>
@@ -4891,7 +4906,7 @@
       <c r="C48" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D48" s="4" t="s">
+      <c r="D48" s="9" t="s">
         <v>178</v>
       </c>
       <c r="E48" s="3"/>
@@ -4903,7 +4918,7 @@
       <c r="C49" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D49" s="5" t="s">
+      <c r="D49" s="10" t="s">
         <v>179</v>
       </c>
       <c r="E49" s="3" t="s">
@@ -4921,7 +4936,7 @@
       <c r="C50" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D50" s="4" t="s">
+      <c r="D50" s="9" t="s">
         <v>181</v>
       </c>
       <c r="E50" s="3"/>
@@ -4935,7 +4950,7 @@
       <c r="C51" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D51" s="4" t="s">
+      <c r="D51" s="9" t="s">
         <v>182</v>
       </c>
       <c r="E51" s="3"/>
@@ -4947,7 +4962,7 @@
       <c r="C52" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D52" s="4" t="s">
+      <c r="D52" s="9" t="s">
         <v>151</v>
       </c>
       <c r="E52" s="3"/>
@@ -4959,7 +4974,7 @@
       <c r="C53" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D53" s="5" t="s">
+      <c r="D53" s="10" t="s">
         <v>150</v>
       </c>
       <c r="E53" s="3" t="s">
@@ -4977,7 +4992,7 @@
       <c r="C54" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D54" s="4" t="s">
+      <c r="D54" s="9" t="s">
         <v>151</v>
       </c>
       <c r="E54" s="3"/>
@@ -4991,7 +5006,7 @@
       <c r="C55" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D55" s="5" t="s">
+      <c r="D55" s="10" t="s">
         <v>150</v>
       </c>
       <c r="E55" s="3"/>
@@ -5003,7 +5018,7 @@
       <c r="C56" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D56" s="4" t="s">
+      <c r="D56" s="9" t="s">
         <v>184</v>
       </c>
       <c r="E56" s="3"/>
@@ -5015,7 +5030,7 @@
       <c r="C57" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D57" s="4" t="s">
+      <c r="D57" s="9" t="s">
         <v>185</v>
       </c>
       <c r="E57" s="3" t="s">
@@ -5033,7 +5048,7 @@
       <c r="C58" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D58" s="4" t="s">
+      <c r="D58" s="9" t="s">
         <v>187</v>
       </c>
       <c r="E58" s="3"/>
@@ -5047,7 +5062,7 @@
       <c r="C59" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D59" s="4" t="s">
+      <c r="D59" s="9" t="s">
         <v>188</v>
       </c>
       <c r="E59" s="3"/>
@@ -5059,7 +5074,7 @@
       <c r="C60" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D60" s="5" t="s">
+      <c r="D60" s="10" t="s">
         <v>189</v>
       </c>
       <c r="E60" s="3"/>
@@ -5071,7 +5086,7 @@
       <c r="C61" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D61" s="4" t="s">
+      <c r="D61" s="9" t="s">
         <v>190</v>
       </c>
       <c r="E61" s="3" t="s">
@@ -5089,7 +5104,7 @@
       <c r="C62" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D62" s="4" t="s">
+      <c r="D62" s="9" t="s">
         <v>192</v>
       </c>
       <c r="E62" s="3"/>
@@ -5103,7 +5118,7 @@
       <c r="C63" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D63" s="5" t="s">
+      <c r="D63" s="10" t="s">
         <v>110</v>
       </c>
       <c r="E63" s="3"/>
@@ -5115,7 +5130,7 @@
       <c r="C64" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D64" s="4" t="s">
+      <c r="D64" s="9" t="s">
         <v>109</v>
       </c>
       <c r="E64" s="3"/>
@@ -5127,7 +5142,7 @@
       <c r="C65" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D65" s="4" t="s">
+      <c r="D65" s="9" t="s">
         <v>193</v>
       </c>
       <c r="E65" s="3" t="s">
@@ -5145,7 +5160,7 @@
       <c r="C66" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D66" s="4" t="s">
+      <c r="D66" s="9" t="s">
         <v>129</v>
       </c>
       <c r="E66" s="3"/>
@@ -5159,7 +5174,7 @@
       <c r="C67" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D67" s="4" t="s">
+      <c r="D67" s="9" t="s">
         <v>130</v>
       </c>
       <c r="E67" s="3"/>
@@ -5171,7 +5186,7 @@
       <c r="C68" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D68" s="4" t="s">
+      <c r="D68" s="9" t="s">
         <v>124</v>
       </c>
       <c r="E68" s="3"/>
@@ -5183,7 +5198,7 @@
       <c r="C69" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D69" s="5" t="s">
+      <c r="D69" s="10" t="s">
         <v>45</v>
       </c>
       <c r="E69" s="3" t="s">
@@ -5201,7 +5216,7 @@
       <c r="C70" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D70" s="4" t="s">
+      <c r="D70" s="9" t="s">
         <v>196</v>
       </c>
       <c r="E70" s="3"/>
@@ -5215,7 +5230,7 @@
       <c r="C71" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D71" s="4" t="s">
+      <c r="D71" s="9" t="s">
         <v>197</v>
       </c>
       <c r="E71" s="3"/>
@@ -5227,7 +5242,7 @@
       <c r="C72" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D72" s="5" t="s">
+      <c r="D72" s="10" t="s">
         <v>198</v>
       </c>
       <c r="E72" s="3"/>
@@ -5239,7 +5254,7 @@
       <c r="C73" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D73" s="4" t="s">
+      <c r="D73" s="9" t="s">
         <v>193</v>
       </c>
       <c r="E73" s="3" t="s">
@@ -5319,7 +5334,7 @@
     <col min="1" max="1" width="5" customWidth="1"/>
     <col min="2" max="2" width="60" customWidth="1"/>
     <col min="3" max="3" width="6" customWidth="1"/>
-    <col min="4" max="4" width="60" customWidth="1"/>
+    <col min="4" max="4" width="60" customWidth="1" style="5"/>
     <col min="5" max="5" width="14" customWidth="1"/>
     <col min="6" max="6" width="10" customWidth="1"/>
   </cols>
@@ -5334,7 +5349,7 @@
       <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="6" t="s">
         <v>3</v>
       </c>
       <c r="E1" s="2" t="s">
@@ -5354,7 +5369,7 @@
       <c r="C2" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="7" t="s">
         <v>200</v>
       </c>
       <c r="E2" s="3"/>
@@ -5368,7 +5383,7 @@
       <c r="C3" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="D3" s="8" t="s">
         <v>201</v>
       </c>
       <c r="E3" s="3"/>
@@ -5380,7 +5395,7 @@
       <c r="C4" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="D4" s="7" t="s">
         <v>202</v>
       </c>
       <c r="E4" s="3"/>
@@ -5392,7 +5407,7 @@
       <c r="C5" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D5" s="4" t="s">
+      <c r="D5" s="7" t="s">
         <v>203</v>
       </c>
       <c r="E5" s="3" t="s">
@@ -5410,7 +5425,7 @@
       <c r="C6" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D6" s="4" t="s">
+      <c r="D6" s="9" t="s">
         <v>90</v>
       </c>
       <c r="E6" s="3"/>
@@ -5424,7 +5439,7 @@
       <c r="C7" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D7" s="4" t="s">
+      <c r="D7" s="9" t="s">
         <v>182</v>
       </c>
       <c r="E7" s="3"/>
@@ -5436,7 +5451,7 @@
       <c r="C8" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D8" s="5" t="s">
+      <c r="D8" s="10" t="s">
         <v>205</v>
       </c>
       <c r="E8" s="3"/>
@@ -5448,7 +5463,7 @@
       <c r="C9" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D9" s="4" t="s">
+      <c r="D9" s="9" t="s">
         <v>206</v>
       </c>
       <c r="E9" s="3" t="s">
@@ -5466,7 +5481,7 @@
       <c r="C10" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D10" s="4" t="s">
+      <c r="D10" s="9" t="s">
         <v>208</v>
       </c>
       <c r="E10" s="3"/>
@@ -5480,7 +5495,7 @@
       <c r="C11" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D11" s="5" t="s">
+      <c r="D11" s="10" t="s">
         <v>209</v>
       </c>
       <c r="E11" s="3"/>
@@ -5492,7 +5507,7 @@
       <c r="C12" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D12" s="4" t="s">
+      <c r="D12" s="9" t="s">
         <v>210</v>
       </c>
       <c r="E12" s="3"/>
@@ -5504,7 +5519,7 @@
       <c r="C13" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D13" s="4" t="s">
+      <c r="D13" s="9" t="s">
         <v>211</v>
       </c>
       <c r="E13" s="3" t="s">
@@ -5522,7 +5537,7 @@
       <c r="C14" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D14" s="4" t="s">
+      <c r="D14" s="9" t="s">
         <v>182</v>
       </c>
       <c r="E14" s="3"/>
@@ -5536,7 +5551,7 @@
       <c r="C15" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D15" s="4" t="s">
+      <c r="D15" s="9" t="s">
         <v>205</v>
       </c>
       <c r="E15" s="3"/>
@@ -5548,7 +5563,7 @@
       <c r="C16" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D16" s="4" t="s">
+      <c r="D16" s="9" t="s">
         <v>206</v>
       </c>
       <c r="E16" s="3"/>
@@ -5560,7 +5575,7 @@
       <c r="C17" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D17" s="5" t="s">
+      <c r="D17" s="10" t="s">
         <v>107</v>
       </c>
       <c r="E17" s="3" t="s">
@@ -5578,7 +5593,7 @@
       <c r="C18" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D18" s="4" t="s">
+      <c r="D18" s="9" t="s">
         <v>160</v>
       </c>
       <c r="E18" s="3"/>
@@ -5592,7 +5607,7 @@
       <c r="C19" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D19" s="4" t="s">
+      <c r="D19" s="9" t="s">
         <v>109</v>
       </c>
       <c r="E19" s="3"/>
@@ -5604,7 +5619,7 @@
       <c r="C20" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D20" s="5" t="s">
+      <c r="D20" s="10" t="s">
         <v>214</v>
       </c>
       <c r="E20" s="3"/>
@@ -5616,7 +5631,7 @@
       <c r="C21" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D21" s="4" t="s">
+      <c r="D21" s="9" t="s">
         <v>193</v>
       </c>
       <c r="E21" s="3" t="s">
@@ -5634,7 +5649,7 @@
       <c r="C22" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D22" s="4" t="s">
+      <c r="D22" s="9" t="s">
         <v>216</v>
       </c>
       <c r="E22" s="3"/>
@@ -5648,7 +5663,7 @@
       <c r="C23" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D23" s="4" t="s">
+      <c r="D23" s="9" t="s">
         <v>217</v>
       </c>
       <c r="E23" s="3"/>
@@ -5660,7 +5675,7 @@
       <c r="C24" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D24" s="5" t="s">
+      <c r="D24" s="10" t="s">
         <v>218</v>
       </c>
       <c r="E24" s="3"/>
@@ -5672,7 +5687,7 @@
       <c r="C25" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D25" s="4" t="s">
+      <c r="D25" s="9" t="s">
         <v>219</v>
       </c>
       <c r="E25" s="3" t="s">
@@ -5690,7 +5705,7 @@
       <c r="C26" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D26" s="4" t="s">
+      <c r="D26" s="9" t="s">
         <v>221</v>
       </c>
       <c r="E26" s="3"/>
@@ -5704,7 +5719,7 @@
       <c r="C27" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D27" s="4" t="s">
+      <c r="D27" s="9" t="s">
         <v>222</v>
       </c>
       <c r="E27" s="3"/>
@@ -5716,7 +5731,7 @@
       <c r="C28" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D28" s="4" t="s">
+      <c r="D28" s="9" t="s">
         <v>223</v>
       </c>
       <c r="E28" s="3"/>
@@ -5728,7 +5743,7 @@
       <c r="C29" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D29" s="5" t="s">
+      <c r="D29" s="10" t="s">
         <v>224</v>
       </c>
       <c r="E29" s="3" t="s">
@@ -5746,7 +5761,7 @@
       <c r="C30" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D30" s="4" t="s">
+      <c r="D30" s="9" t="s">
         <v>226</v>
       </c>
       <c r="E30" s="3"/>
@@ -5760,7 +5775,7 @@
       <c r="C31" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D31" s="4" t="s">
+      <c r="D31" s="9" t="s">
         <v>227</v>
       </c>
       <c r="E31" s="3"/>
@@ -5772,7 +5787,7 @@
       <c r="C32" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D32" s="5" t="s">
+      <c r="D32" s="10" t="s">
         <v>228</v>
       </c>
       <c r="E32" s="3"/>
@@ -5784,7 +5799,7 @@
       <c r="C33" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D33" s="4" t="s">
+      <c r="D33" s="9" t="s">
         <v>210</v>
       </c>
       <c r="E33" s="3" t="s">
@@ -5802,7 +5817,7 @@
       <c r="C34" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D34" s="5" t="s">
+      <c r="D34" s="10" t="s">
         <v>230</v>
       </c>
       <c r="E34" s="3"/>
@@ -5816,7 +5831,7 @@
       <c r="C35" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D35" s="4" t="s">
+      <c r="D35" s="9" t="s">
         <v>231</v>
       </c>
       <c r="E35" s="3"/>
@@ -5828,7 +5843,7 @@
       <c r="C36" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D36" s="4" t="s">
+      <c r="D36" s="9" t="s">
         <v>232</v>
       </c>
       <c r="E36" s="3"/>
@@ -5840,7 +5855,7 @@
       <c r="C37" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D37" s="4" t="s">
+      <c r="D37" s="9" t="s">
         <v>233</v>
       </c>
       <c r="E37" s="3" t="s">
@@ -5858,7 +5873,7 @@
       <c r="C38" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D38" s="4" t="s">
+      <c r="D38" s="9" t="s">
         <v>206</v>
       </c>
       <c r="E38" s="3"/>
@@ -5872,7 +5887,7 @@
       <c r="C39" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D39" s="5" t="s">
+      <c r="D39" s="10" t="s">
         <v>104</v>
       </c>
       <c r="E39" s="3"/>
@@ -5884,7 +5899,7 @@
       <c r="C40" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D40" s="4" t="s">
+      <c r="D40" s="9" t="s">
         <v>235</v>
       </c>
       <c r="E40" s="3"/>
@@ -5896,7 +5911,7 @@
       <c r="C41" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D41" s="4" t="s">
+      <c r="D41" s="9" t="s">
         <v>236</v>
       </c>
       <c r="E41" s="3" t="s">
@@ -5914,7 +5929,7 @@
       <c r="C42" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D42" s="4" t="s">
+      <c r="D42" s="9" t="s">
         <v>150</v>
       </c>
       <c r="E42" s="3"/>
@@ -5928,7 +5943,7 @@
       <c r="C43" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D43" s="5" t="s">
+      <c r="D43" s="10" t="s">
         <v>214</v>
       </c>
       <c r="E43" s="3"/>
@@ -5940,7 +5955,7 @@
       <c r="C44" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D44" s="4" t="s">
+      <c r="D44" s="9" t="s">
         <v>182</v>
       </c>
       <c r="E44" s="3"/>
@@ -5952,7 +5967,7 @@
       <c r="C45" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D45" s="4" t="s">
+      <c r="D45" s="9" t="s">
         <v>238</v>
       </c>
       <c r="E45" s="3" t="s">
@@ -5970,7 +5985,7 @@
       <c r="C46" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D46" s="5" t="s">
+      <c r="D46" s="10" t="s">
         <v>238</v>
       </c>
       <c r="E46" s="3"/>
@@ -5984,7 +5999,7 @@
       <c r="C47" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D47" s="4" t="s">
+      <c r="D47" s="9" t="s">
         <v>240</v>
       </c>
       <c r="E47" s="3"/>
@@ -5996,7 +6011,7 @@
       <c r="C48" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D48" s="4" t="s">
+      <c r="D48" s="9" t="s">
         <v>241</v>
       </c>
       <c r="E48" s="3"/>
@@ -6008,7 +6023,7 @@
       <c r="C49" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D49" s="4" t="s">
+      <c r="D49" s="9" t="s">
         <v>193</v>
       </c>
       <c r="E49" s="3" t="s">
@@ -6026,7 +6041,7 @@
       <c r="C50" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D50" s="4" t="s">
+      <c r="D50" s="9" t="s">
         <v>243</v>
       </c>
       <c r="E50" s="3"/>
@@ -6040,7 +6055,7 @@
       <c r="C51" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D51" s="4" t="s">
+      <c r="D51" s="9" t="s">
         <v>244</v>
       </c>
       <c r="E51" s="3"/>
@@ -6052,7 +6067,7 @@
       <c r="C52" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D52" s="4" t="s">
+      <c r="D52" s="9" t="s">
         <v>245</v>
       </c>
       <c r="E52" s="3"/>
@@ -6064,7 +6079,7 @@
       <c r="C53" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D53" s="5" t="s">
+      <c r="D53" s="10" t="s">
         <v>246</v>
       </c>
       <c r="E53" s="3" t="s">
@@ -6082,7 +6097,7 @@
       <c r="C54" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D54" s="4" t="s">
+      <c r="D54" s="9" t="s">
         <v>243</v>
       </c>
       <c r="E54" s="3"/>
@@ -6096,7 +6111,7 @@
       <c r="C55" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D55" s="5" t="s">
+      <c r="D55" s="10" t="s">
         <v>244</v>
       </c>
       <c r="E55" s="3"/>
@@ -6108,7 +6123,7 @@
       <c r="C56" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D56" s="4" t="s">
+      <c r="D56" s="9" t="s">
         <v>245</v>
       </c>
       <c r="E56" s="3"/>
@@ -6120,7 +6135,7 @@
       <c r="C57" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D57" s="4" t="s">
+      <c r="D57" s="9" t="s">
         <v>248</v>
       </c>
       <c r="E57" s="3" t="s">
@@ -6138,7 +6153,7 @@
       <c r="C58" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D58" s="4" t="s">
+      <c r="D58" s="9" t="s">
         <v>243</v>
       </c>
       <c r="E58" s="3"/>
@@ -6152,7 +6167,7 @@
       <c r="C59" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D59" s="4" t="s">
+      <c r="D59" s="9" t="s">
         <v>244</v>
       </c>
       <c r="E59" s="3"/>
@@ -6164,7 +6179,7 @@
       <c r="C60" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D60" s="5" t="s">
+      <c r="D60" s="10" t="s">
         <v>245</v>
       </c>
       <c r="E60" s="3"/>
@@ -6176,7 +6191,7 @@
       <c r="C61" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D61" s="4" t="s">
+      <c r="D61" s="9" t="s">
         <v>250</v>
       </c>
       <c r="E61" s="3" t="s">
@@ -6194,7 +6209,7 @@
       <c r="C62" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D62" s="4" t="s">
+      <c r="D62" s="9" t="s">
         <v>110</v>
       </c>
       <c r="E62" s="3"/>
@@ -6208,7 +6223,7 @@
       <c r="C63" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D63" s="5" t="s">
+      <c r="D63" s="10" t="s">
         <v>109</v>
       </c>
       <c r="E63" s="3"/>
@@ -6220,7 +6235,7 @@
       <c r="C64" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D64" s="4" t="s">
+      <c r="D64" s="9" t="s">
         <v>210</v>
       </c>
       <c r="E64" s="3"/>
@@ -6232,7 +6247,7 @@
       <c r="C65" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D65" s="4" t="s">
+      <c r="D65" s="9" t="s">
         <v>252</v>
       </c>
       <c r="E65" s="3" t="s">
@@ -6250,7 +6265,7 @@
       <c r="C66" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D66" s="4" t="s">
+      <c r="D66" s="9" t="s">
         <v>254</v>
       </c>
       <c r="E66" s="3"/>
@@ -6264,7 +6279,7 @@
       <c r="C67" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D67" s="4" t="s">
+      <c r="D67" s="9" t="s">
         <v>255</v>
       </c>
       <c r="E67" s="3"/>
@@ -6276,7 +6291,7 @@
       <c r="C68" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D68" s="4" t="s">
+      <c r="D68" s="9" t="s">
         <v>218</v>
       </c>
       <c r="E68" s="3"/>
@@ -6288,7 +6303,7 @@
       <c r="C69" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D69" s="5" t="s">
+      <c r="D69" s="10" t="s">
         <v>216</v>
       </c>
       <c r="E69" s="3" t="s">
@@ -6306,7 +6321,7 @@
       <c r="C70" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D70" s="4" t="s">
+      <c r="D70" s="9" t="s">
         <v>257</v>
       </c>
       <c r="E70" s="3"/>
@@ -6320,7 +6335,7 @@
       <c r="C71" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D71" s="5" t="s">
+      <c r="D71" s="10" t="s">
         <v>236</v>
       </c>
       <c r="E71" s="3"/>
@@ -6332,7 +6347,7 @@
       <c r="C72" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D72" s="4" t="s">
+      <c r="D72" s="9" t="s">
         <v>109</v>
       </c>
       <c r="E72" s="3"/>
@@ -6344,7 +6359,7 @@
       <c r="C73" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D73" s="4" t="s">
+      <c r="D73" s="9" t="s">
         <v>105</v>
       </c>
       <c r="E73" s="3" t="s">
@@ -6362,7 +6377,7 @@
       <c r="C74" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D74" s="4" t="s">
+      <c r="D74" s="9" t="s">
         <v>259</v>
       </c>
       <c r="E74" s="3"/>
@@ -6376,7 +6391,7 @@
       <c r="C75" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D75" s="4" t="s">
+      <c r="D75" s="9" t="s">
         <v>260</v>
       </c>
       <c r="E75" s="3"/>
@@ -6388,7 +6403,7 @@
       <c r="C76" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D76" s="5" t="s">
+      <c r="D76" s="10" t="s">
         <v>261</v>
       </c>
       <c r="E76" s="3"/>
@@ -6400,7 +6415,7 @@
       <c r="C77" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D77" s="4" t="s">
+      <c r="D77" s="9" t="s">
         <v>262</v>
       </c>
       <c r="E77" s="3" t="s">
@@ -6418,7 +6433,7 @@
       <c r="C78" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D78" s="4" t="s">
+      <c r="D78" s="9" t="s">
         <v>264</v>
       </c>
       <c r="E78" s="3"/>
@@ -6432,7 +6447,7 @@
       <c r="C79" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D79" s="5" t="s">
+      <c r="D79" s="10" t="s">
         <v>265</v>
       </c>
       <c r="E79" s="3"/>
@@ -6444,7 +6459,7 @@
       <c r="C80" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D80" s="4" t="s">
+      <c r="D80" s="9" t="s">
         <v>266</v>
       </c>
       <c r="E80" s="3"/>
@@ -6456,7 +6471,7 @@
       <c r="C81" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D81" s="4" t="s">
+      <c r="D81" s="9" t="s">
         <v>267</v>
       </c>
       <c r="E81" s="3" t="s">
@@ -6542,7 +6557,7 @@
     <col min="1" max="1" width="5" customWidth="1"/>
     <col min="2" max="2" width="60" customWidth="1"/>
     <col min="3" max="3" width="6" customWidth="1"/>
-    <col min="4" max="4" width="60" customWidth="1"/>
+    <col min="4" max="4" width="60" customWidth="1" style="5"/>
     <col min="5" max="5" width="14" customWidth="1"/>
     <col min="6" max="6" width="10" customWidth="1"/>
   </cols>
@@ -6557,7 +6572,7 @@
       <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="6" t="s">
         <v>3</v>
       </c>
       <c r="E1" s="2" t="s">
@@ -6577,7 +6592,7 @@
       <c r="C2" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="7" t="s">
         <v>150</v>
       </c>
       <c r="E2" s="3"/>
@@ -6591,7 +6606,7 @@
       <c r="C3" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="D3" s="8" t="s">
         <v>107</v>
       </c>
       <c r="E3" s="3"/>
@@ -6603,7 +6618,7 @@
       <c r="C4" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="D4" s="7" t="s">
         <v>269</v>
       </c>
       <c r="E4" s="3"/>
@@ -6615,7 +6630,7 @@
       <c r="C5" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D5" s="4" t="s">
+      <c r="D5" s="7" t="s">
         <v>270</v>
       </c>
       <c r="E5" s="3" t="s">
@@ -6633,7 +6648,7 @@
       <c r="C6" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D6" s="4" t="s">
+      <c r="D6" s="9" t="s">
         <v>272</v>
       </c>
       <c r="E6" s="3"/>
@@ -6647,7 +6662,7 @@
       <c r="C7" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D7" s="4" t="s">
+      <c r="D7" s="9" t="s">
         <v>273</v>
       </c>
       <c r="E7" s="3"/>
@@ -6659,7 +6674,7 @@
       <c r="C8" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D8" s="5" t="s">
+      <c r="D8" s="10" t="s">
         <v>274</v>
       </c>
       <c r="E8" s="3"/>
@@ -6671,7 +6686,7 @@
       <c r="C9" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D9" s="4" t="s">
+      <c r="D9" s="9" t="s">
         <v>275</v>
       </c>
       <c r="E9" s="3" t="s">
@@ -6689,7 +6704,7 @@
       <c r="C10" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D10" s="4" t="s">
+      <c r="D10" s="9" t="s">
         <v>277</v>
       </c>
       <c r="E10" s="3"/>
@@ -6703,7 +6718,7 @@
       <c r="C11" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D11" s="4" t="s">
+      <c r="D11" s="9" t="s">
         <v>278</v>
       </c>
       <c r="E11" s="3"/>
@@ -6715,7 +6730,7 @@
       <c r="C12" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D12" s="4" t="s">
+      <c r="D12" s="9" t="s">
         <v>279</v>
       </c>
       <c r="E12" s="3"/>
@@ -6727,7 +6742,7 @@
       <c r="C13" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D13" s="5" t="s">
+      <c r="D13" s="10" t="s">
         <v>280</v>
       </c>
       <c r="E13" s="3" t="s">
@@ -6745,7 +6760,7 @@
       <c r="C14" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D14" s="4" t="s">
+      <c r="D14" s="9" t="s">
         <v>282</v>
       </c>
       <c r="E14" s="3"/>
@@ -6759,7 +6774,7 @@
       <c r="C15" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D15" s="4" t="s">
+      <c r="D15" s="9" t="s">
         <v>283</v>
       </c>
       <c r="E15" s="3"/>
@@ -6771,7 +6786,7 @@
       <c r="C16" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D16" s="5" t="s">
+      <c r="D16" s="10" t="s">
         <v>284</v>
       </c>
       <c r="E16" s="3"/>
@@ -6783,7 +6798,7 @@
       <c r="C17" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D17" s="4" t="s">
+      <c r="D17" s="9" t="s">
         <v>285</v>
       </c>
       <c r="E17" s="3" t="s">
@@ -6801,7 +6816,7 @@
       <c r="C18" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D18" s="4" t="s">
+      <c r="D18" s="9" t="s">
         <v>287</v>
       </c>
       <c r="E18" s="3"/>
@@ -6815,7 +6830,7 @@
       <c r="C19" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D19" s="4" t="s">
+      <c r="D19" s="9" t="s">
         <v>288</v>
       </c>
       <c r="E19" s="3"/>
@@ -6827,7 +6842,7 @@
       <c r="C20" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D20" s="5" t="s">
+      <c r="D20" s="10" t="s">
         <v>289</v>
       </c>
       <c r="E20" s="3"/>
@@ -6839,7 +6854,7 @@
       <c r="C21" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D21" s="4" t="s">
+      <c r="D21" s="9" t="s">
         <v>290</v>
       </c>
       <c r="E21" s="3" t="s">
@@ -6857,7 +6872,7 @@
       <c r="C22" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D22" s="4" t="s">
+      <c r="D22" s="9" t="s">
         <v>292</v>
       </c>
       <c r="E22" s="3"/>
@@ -6871,7 +6886,7 @@
       <c r="C23" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D23" s="4" t="s">
+      <c r="D23" s="9" t="s">
         <v>293</v>
       </c>
       <c r="E23" s="3"/>
@@ -6883,7 +6898,7 @@
       <c r="C24" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D24" s="4" t="s">
+      <c r="D24" s="9" t="s">
         <v>294</v>
       </c>
       <c r="E24" s="3"/>
@@ -6895,7 +6910,7 @@
       <c r="C25" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D25" s="5" t="s">
+      <c r="D25" s="10" t="s">
         <v>295</v>
       </c>
       <c r="E25" s="3" t="s">
@@ -6913,7 +6928,7 @@
       <c r="C26" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D26" s="5" t="s">
+      <c r="D26" s="10" t="s">
         <v>297</v>
       </c>
       <c r="E26" s="3"/>
@@ -6927,7 +6942,7 @@
       <c r="C27" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D27" s="4" t="s">
+      <c r="D27" s="9" t="s">
         <v>298</v>
       </c>
       <c r="E27" s="3"/>
@@ -6939,7 +6954,7 @@
       <c r="C28" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D28" s="4" t="s">
+      <c r="D28" s="9" t="s">
         <v>299</v>
       </c>
       <c r="E28" s="3"/>
@@ -6951,7 +6966,7 @@
       <c r="C29" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D29" s="4" t="s">
+      <c r="D29" s="9" t="s">
         <v>300</v>
       </c>
       <c r="E29" s="3" t="s">
@@ -6969,7 +6984,7 @@
       <c r="C30" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D30" s="4" t="s">
+      <c r="D30" s="9" t="s">
         <v>302</v>
       </c>
       <c r="E30" s="3"/>
@@ -6983,7 +6998,7 @@
       <c r="C31" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D31" s="4" t="s">
+      <c r="D31" s="9" t="s">
         <v>303</v>
       </c>
       <c r="E31" s="3"/>
@@ -6995,7 +7010,7 @@
       <c r="C32" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D32" s="5" t="s">
+      <c r="D32" s="10" t="s">
         <v>304</v>
       </c>
       <c r="E32" s="3"/>
@@ -7007,7 +7022,7 @@
       <c r="C33" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D33" s="4" t="s">
+      <c r="D33" s="9" t="s">
         <v>305</v>
       </c>
       <c r="E33" s="3" t="s">
@@ -7025,7 +7040,7 @@
       <c r="C34" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D34" s="4" t="s">
+      <c r="D34" s="9" t="s">
         <v>307</v>
       </c>
       <c r="E34" s="3"/>
@@ -7039,7 +7054,7 @@
       <c r="C35" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D35" s="4" t="s">
+      <c r="D35" s="9" t="s">
         <v>308</v>
       </c>
       <c r="E35" s="3"/>
@@ -7051,7 +7066,7 @@
       <c r="C36" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D36" s="4" t="s">
+      <c r="D36" s="9" t="s">
         <v>309</v>
       </c>
       <c r="E36" s="3"/>
@@ -7063,7 +7078,7 @@
       <c r="C37" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D37" s="5" t="s">
+      <c r="D37" s="10" t="s">
         <v>310</v>
       </c>
       <c r="E37" s="3" t="s">
@@ -7081,7 +7096,7 @@
       <c r="C38" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D38" s="5" t="s">
+      <c r="D38" s="10" t="s">
         <v>312</v>
       </c>
       <c r="E38" s="3"/>
@@ -7095,7 +7110,7 @@
       <c r="C39" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D39" s="4" t="s">
+      <c r="D39" s="9" t="s">
         <v>313</v>
       </c>
       <c r="E39" s="3"/>
@@ -7107,7 +7122,7 @@
       <c r="C40" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D40" s="4" t="s">
+      <c r="D40" s="9" t="s">
         <v>314</v>
       </c>
       <c r="E40" s="3"/>
@@ -7119,7 +7134,7 @@
       <c r="C41" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D41" s="4" t="s">
+      <c r="D41" s="9" t="s">
         <v>315</v>
       </c>
       <c r="E41" s="3" t="s">
@@ -7137,7 +7152,7 @@
       <c r="C42" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D42" s="4" t="s">
+      <c r="D42" s="9" t="s">
         <v>316</v>
       </c>
       <c r="E42" s="3"/>
@@ -7151,7 +7166,7 @@
       <c r="C43" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D43" s="5" t="s">
+      <c r="D43" s="10" t="s">
         <v>116</v>
       </c>
       <c r="E43" s="3"/>
@@ -7163,7 +7178,7 @@
       <c r="C44" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D44" s="4" t="s">
+      <c r="D44" s="9" t="s">
         <v>117</v>
       </c>
       <c r="E44" s="3"/>
@@ -7175,7 +7190,7 @@
       <c r="C45" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D45" s="4" t="s">
+      <c r="D45" s="9" t="s">
         <v>310</v>
       </c>
       <c r="E45" s="3" t="s">
@@ -7193,7 +7208,7 @@
       <c r="C46" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D46" s="4" t="s">
+      <c r="D46" s="9" t="s">
         <v>318</v>
       </c>
       <c r="E46" s="3"/>
@@ -7207,7 +7222,7 @@
       <c r="C47" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D47" s="5" t="s">
+      <c r="D47" s="10" t="s">
         <v>319</v>
       </c>
       <c r="E47" s="3"/>
@@ -7219,7 +7234,7 @@
       <c r="C48" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D48" s="4" t="s">
+      <c r="D48" s="9" t="s">
         <v>320</v>
       </c>
       <c r="E48" s="3"/>
@@ -7231,7 +7246,7 @@
       <c r="C49" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D49" s="4" t="s">
+      <c r="D49" s="9" t="s">
         <v>321</v>
       </c>
       <c r="E49" s="3" t="s">
@@ -7249,7 +7264,7 @@
       <c r="C50" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D50" s="5" t="s">
+      <c r="D50" s="10" t="s">
         <v>182</v>
       </c>
       <c r="E50" s="3"/>
@@ -7263,7 +7278,7 @@
       <c r="C51" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D51" s="4" t="s">
+      <c r="D51" s="9" t="s">
         <v>104</v>
       </c>
       <c r="E51" s="3"/>
@@ -7275,7 +7290,7 @@
       <c r="C52" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D52" s="4" t="s">
+      <c r="D52" s="9" t="s">
         <v>150</v>
       </c>
       <c r="E52" s="3"/>
@@ -7287,7 +7302,7 @@
       <c r="C53" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D53" s="4" t="s">
+      <c r="D53" s="9" t="s">
         <v>323</v>
       </c>
       <c r="E53" s="3" t="s">
@@ -7305,7 +7320,7 @@
       <c r="C54" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D54" s="4" t="s">
+      <c r="D54" s="9" t="s">
         <v>325</v>
       </c>
       <c r="E54" s="3"/>
@@ -7319,7 +7334,7 @@
       <c r="C55" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D55" s="4" t="s">
+      <c r="D55" s="9" t="s">
         <v>104</v>
       </c>
       <c r="E55" s="3"/>
@@ -7331,7 +7346,7 @@
       <c r="C56" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D56" s="5" t="s">
+      <c r="D56" s="10" t="s">
         <v>182</v>
       </c>
       <c r="E56" s="3"/>
@@ -7343,7 +7358,7 @@
       <c r="C57" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D57" s="4" t="s">
+      <c r="D57" s="9" t="s">
         <v>107</v>
       </c>
       <c r="E57" s="3" t="s">
@@ -7361,7 +7376,7 @@
       <c r="C58" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D58" s="4" t="s">
+      <c r="D58" s="9" t="s">
         <v>327</v>
       </c>
       <c r="E58" s="3"/>
@@ -7375,7 +7390,7 @@
       <c r="C59" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D59" s="5" t="s">
+      <c r="D59" s="10" t="s">
         <v>328</v>
       </c>
       <c r="E59" s="3"/>
@@ -7387,7 +7402,7 @@
       <c r="C60" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D60" s="4" t="s">
+      <c r="D60" s="9" t="s">
         <v>323</v>
       </c>
       <c r="E60" s="3"/>
@@ -7399,7 +7414,7 @@
       <c r="C61" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D61" s="4" t="s">
+      <c r="D61" s="9" t="s">
         <v>193</v>
       </c>
       <c r="E61" s="3" t="s">
@@ -7417,7 +7432,7 @@
       <c r="C62" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D62" s="5" t="s">
+      <c r="D62" s="10" t="s">
         <v>107</v>
       </c>
       <c r="E62" s="3"/>
@@ -7431,7 +7446,7 @@
       <c r="C63" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D63" s="4" t="s">
+      <c r="D63" s="9" t="s">
         <v>104</v>
       </c>
       <c r="E63" s="3"/>
@@ -7443,7 +7458,7 @@
       <c r="C64" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D64" s="4" t="s">
+      <c r="D64" s="9" t="s">
         <v>182</v>
       </c>
       <c r="E64" s="3"/>
@@ -7455,7 +7470,7 @@
       <c r="C65" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D65" s="4" t="s">
+      <c r="D65" s="9" t="s">
         <v>330</v>
       </c>
       <c r="E65" s="3" t="s">
@@ -7473,7 +7488,7 @@
       <c r="C66" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D66" s="4" t="s">
+      <c r="D66" s="9" t="s">
         <v>328</v>
       </c>
       <c r="E66" s="3"/>
@@ -7487,7 +7502,7 @@
       <c r="C67" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D67" s="5" t="s">
+      <c r="D67" s="10" t="s">
         <v>332</v>
       </c>
       <c r="E67" s="3"/>
@@ -7499,7 +7514,7 @@
       <c r="C68" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D68" s="4" t="s">
+      <c r="D68" s="9" t="s">
         <v>323</v>
       </c>
       <c r="E68" s="3"/>
@@ -7511,7 +7526,7 @@
       <c r="C69" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D69" s="4" t="s">
+      <c r="D69" s="9" t="s">
         <v>193</v>
       </c>
       <c r="E69" s="3" t="s">
@@ -7529,7 +7544,7 @@
       <c r="C70" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D70" s="4" t="s">
+      <c r="D70" s="9" t="s">
         <v>182</v>
       </c>
       <c r="E70" s="3"/>
@@ -7543,7 +7558,7 @@
       <c r="C71" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D71" s="5" t="s">
+      <c r="D71" s="10" t="s">
         <v>104</v>
       </c>
       <c r="E71" s="3"/>
@@ -7555,7 +7570,7 @@
       <c r="C72" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D72" s="4" t="s">
+      <c r="D72" s="9" t="s">
         <v>150</v>
       </c>
       <c r="E72" s="3"/>
@@ -7567,7 +7582,7 @@
       <c r="C73" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D73" s="4" t="s">
+      <c r="D73" s="9" t="s">
         <v>334</v>
       </c>
       <c r="E73" s="3" t="s">
@@ -7647,7 +7662,7 @@
     <col min="1" max="1" width="5" customWidth="1"/>
     <col min="2" max="2" width="60" customWidth="1"/>
     <col min="3" max="3" width="6" customWidth="1"/>
-    <col min="4" max="4" width="60" customWidth="1"/>
+    <col min="4" max="4" width="60" customWidth="1" style="5"/>
     <col min="5" max="5" width="14" customWidth="1"/>
     <col min="6" max="6" width="10" customWidth="1"/>
   </cols>
@@ -7662,7 +7677,7 @@
       <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="6" t="s">
         <v>3</v>
       </c>
       <c r="E1" s="2" t="s">
@@ -7682,7 +7697,7 @@
       <c r="C2" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D2" s="8" t="s">
         <v>336</v>
       </c>
       <c r="E2" s="3"/>
@@ -7696,7 +7711,7 @@
       <c r="C3" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="D3" s="7" t="s">
         <v>337</v>
       </c>
       <c r="E3" s="3"/>
@@ -7708,7 +7723,7 @@
       <c r="C4" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="D4" s="7" t="s">
         <v>338</v>
       </c>
       <c r="E4" s="3"/>
@@ -7720,7 +7735,7 @@
       <c r="C5" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D5" s="4" t="s">
+      <c r="D5" s="7" t="s">
         <v>339</v>
       </c>
       <c r="E5" s="3" t="s">
@@ -7738,7 +7753,7 @@
       <c r="C6" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D6" s="4" t="s">
+      <c r="D6" s="9" t="s">
         <v>341</v>
       </c>
       <c r="E6" s="3"/>
@@ -7752,7 +7767,7 @@
       <c r="C7" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D7" s="4" t="s">
+      <c r="D7" s="9" t="s">
         <v>342</v>
       </c>
       <c r="E7" s="3"/>
@@ -7764,7 +7779,7 @@
       <c r="C8" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D8" s="5" t="s">
+      <c r="D8" s="10" t="s">
         <v>343</v>
       </c>
       <c r="E8" s="3"/>
@@ -7776,7 +7791,7 @@
       <c r="C9" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D9" s="4" t="s">
+      <c r="D9" s="9" t="s">
         <v>344</v>
       </c>
       <c r="E9" s="3" t="s">
@@ -7794,7 +7809,7 @@
       <c r="C10" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D10" s="4" t="s">
+      <c r="D10" s="9" t="s">
         <v>346</v>
       </c>
       <c r="E10" s="3"/>
@@ -7808,7 +7823,7 @@
       <c r="C11" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D11" s="4" t="s">
+      <c r="D11" s="9" t="s">
         <v>347</v>
       </c>
       <c r="E11" s="3"/>
@@ -7820,7 +7835,7 @@
       <c r="C12" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D12" s="4" t="s">
+      <c r="D12" s="9" t="s">
         <v>348</v>
       </c>
       <c r="E12" s="3"/>
@@ -7832,7 +7847,7 @@
       <c r="C13" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D13" s="5" t="s">
+      <c r="D13" s="10" t="s">
         <v>349</v>
       </c>
       <c r="E13" s="3" t="s">
@@ -7850,7 +7865,7 @@
       <c r="C14" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D14" s="4" t="s">
+      <c r="D14" s="9" t="s">
         <v>351</v>
       </c>
       <c r="E14" s="3"/>
@@ -7864,7 +7879,7 @@
       <c r="C15" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D15" s="4" t="s">
+      <c r="D15" s="9" t="s">
         <v>352</v>
       </c>
       <c r="E15" s="3"/>
@@ -7876,7 +7891,7 @@
       <c r="C16" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D16" s="4" t="s">
+      <c r="D16" s="9" t="s">
         <v>353</v>
       </c>
       <c r="E16" s="3"/>
@@ -7888,7 +7903,7 @@
       <c r="C17" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D17" s="5" t="s">
+      <c r="D17" s="10" t="s">
         <v>354</v>
       </c>
       <c r="E17" s="3" t="s">
@@ -7906,7 +7921,7 @@
       <c r="C18" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D18" s="4" t="s">
+      <c r="D18" s="9" t="s">
         <v>356</v>
       </c>
       <c r="E18" s="3"/>
@@ -7920,7 +7935,7 @@
       <c r="C19" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D19" s="5" t="s">
+      <c r="D19" s="10" t="s">
         <v>357</v>
       </c>
       <c r="E19" s="3"/>
@@ -7932,7 +7947,7 @@
       <c r="C20" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D20" s="4" t="s">
+      <c r="D20" s="9" t="s">
         <v>358</v>
       </c>
       <c r="E20" s="3"/>
@@ -7944,7 +7959,7 @@
       <c r="C21" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D21" s="4" t="s">
+      <c r="D21" s="9" t="s">
         <v>193</v>
       </c>
       <c r="E21" s="3" t="s">
@@ -7962,7 +7977,7 @@
       <c r="C22" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D22" s="4" t="s">
+      <c r="D22" s="9" t="s">
         <v>360</v>
       </c>
       <c r="E22" s="3"/>
@@ -7976,7 +7991,7 @@
       <c r="C23" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D23" s="4" t="s">
+      <c r="D23" s="9" t="s">
         <v>361</v>
       </c>
       <c r="E23" s="3"/>
@@ -7988,7 +8003,7 @@
       <c r="C24" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D24" s="5" t="s">
+      <c r="D24" s="10" t="s">
         <v>362</v>
       </c>
       <c r="E24" s="3"/>
@@ -8000,7 +8015,7 @@
       <c r="C25" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D25" s="4" t="s">
+      <c r="D25" s="9" t="s">
         <v>363</v>
       </c>
       <c r="E25" s="3" t="s">
@@ -8018,7 +8033,7 @@
       <c r="C26" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D26" s="4" t="s">
+      <c r="D26" s="9" t="s">
         <v>365</v>
       </c>
       <c r="E26" s="3"/>
@@ -8032,7 +8047,7 @@
       <c r="C27" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D27" s="5" t="s">
+      <c r="D27" s="10" t="s">
         <v>366</v>
       </c>
       <c r="E27" s="3"/>
@@ -8044,7 +8059,7 @@
       <c r="C28" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D28" s="4" t="s">
+      <c r="D28" s="9" t="s">
         <v>367</v>
       </c>
       <c r="E28" s="3"/>
@@ -8056,7 +8071,7 @@
       <c r="C29" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D29" s="4" t="s">
+      <c r="D29" s="9" t="s">
         <v>368</v>
       </c>
       <c r="E29" s="3" t="s">
@@ -8074,7 +8089,7 @@
       <c r="C30" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D30" s="5" t="s">
+      <c r="D30" s="10" t="s">
         <v>370</v>
       </c>
       <c r="E30" s="3"/>
@@ -8088,7 +8103,7 @@
       <c r="C31" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D31" s="4" t="s">
+      <c r="D31" s="9" t="s">
         <v>371</v>
       </c>
       <c r="E31" s="3"/>
@@ -8100,7 +8115,7 @@
       <c r="C32" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D32" s="4" t="s">
+      <c r="D32" s="9" t="s">
         <v>116</v>
       </c>
       <c r="E32" s="3"/>
@@ -8112,7 +8127,7 @@
       <c r="C33" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D33" s="4" t="s">
+      <c r="D33" s="9" t="s">
         <v>117</v>
       </c>
       <c r="E33" s="3" t="s">
@@ -8130,7 +8145,7 @@
       <c r="C34" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D34" s="4" t="s">
+      <c r="D34" s="9" t="s">
         <v>373</v>
       </c>
       <c r="E34" s="3"/>
@@ -8144,7 +8159,7 @@
       <c r="C35" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D35" s="5" t="s">
+      <c r="D35" s="10" t="s">
         <v>374</v>
       </c>
       <c r="E35" s="3"/>
@@ -8156,7 +8171,7 @@
       <c r="C36" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D36" s="4" t="s">
+      <c r="D36" s="9" t="s">
         <v>375</v>
       </c>
       <c r="E36" s="3"/>
@@ -8168,7 +8183,7 @@
       <c r="C37" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D37" s="4" t="s">
+      <c r="D37" s="9" t="s">
         <v>45</v>
       </c>
       <c r="E37" s="3" t="s">
@@ -8186,7 +8201,7 @@
       <c r="C38" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D38" s="4" t="s">
+      <c r="D38" s="9" t="s">
         <v>377</v>
       </c>
       <c r="E38" s="3"/>
@@ -8200,7 +8215,7 @@
       <c r="C39" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D39" s="4" t="s">
+      <c r="D39" s="9" t="s">
         <v>378</v>
       </c>
       <c r="E39" s="3"/>
@@ -8212,7 +8227,7 @@
       <c r="C40" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D40" s="4" t="s">
+      <c r="D40" s="9" t="s">
         <v>379</v>
       </c>
       <c r="E40" s="3"/>
@@ -8224,7 +8239,7 @@
       <c r="C41" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D41" s="5" t="s">
+      <c r="D41" s="10" t="s">
         <v>45</v>
       </c>
       <c r="E41" s="3" t="s">
@@ -8242,7 +8257,7 @@
       <c r="C42" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D42" s="4" t="s">
+      <c r="D42" s="9" t="s">
         <v>381</v>
       </c>
       <c r="E42" s="3"/>
@@ -8256,7 +8271,7 @@
       <c r="C43" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D43" s="5" t="s">
+      <c r="D43" s="10" t="s">
         <v>382</v>
       </c>
       <c r="E43" s="3"/>
@@ -8268,7 +8283,7 @@
       <c r="C44" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D44" s="4" t="s">
+      <c r="D44" s="9" t="s">
         <v>383</v>
       </c>
       <c r="E44" s="3"/>
@@ -8280,7 +8295,7 @@
       <c r="C45" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D45" s="4" t="s">
+      <c r="D45" s="9" t="s">
         <v>280</v>
       </c>
       <c r="E45" s="3" t="s">
@@ -8298,7 +8313,7 @@
       <c r="C46" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D46" s="4" t="s">
+      <c r="D46" s="9" t="s">
         <v>385</v>
       </c>
       <c r="E46" s="3"/>
@@ -8312,7 +8327,7 @@
       <c r="C47" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D47" s="4" t="s">
+      <c r="D47" s="9" t="s">
         <v>386</v>
       </c>
       <c r="E47" s="3"/>
@@ -8324,7 +8339,7 @@
       <c r="C48" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D48" s="4" t="s">
+      <c r="D48" s="9" t="s">
         <v>387</v>
       </c>
       <c r="E48" s="3"/>
@@ -8336,7 +8351,7 @@
       <c r="C49" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D49" s="5" t="s">
+      <c r="D49" s="10" t="s">
         <v>45</v>
       </c>
       <c r="E49" s="3" t="s">
@@ -8354,7 +8369,7 @@
       <c r="C50" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D50" s="4" t="s">
+      <c r="D50" s="9" t="s">
         <v>389</v>
       </c>
       <c r="E50" s="3"/>
@@ -8368,7 +8383,7 @@
       <c r="C51" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D51" s="4" t="s">
+      <c r="D51" s="9" t="s">
         <v>390</v>
       </c>
       <c r="E51" s="3"/>
@@ -8380,7 +8395,7 @@
       <c r="C52" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D52" s="5" t="s">
+      <c r="D52" s="10" t="s">
         <v>274</v>
       </c>
       <c r="E52" s="3"/>
@@ -8392,7 +8407,7 @@
       <c r="C53" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D53" s="4" t="s">
+      <c r="D53" s="9" t="s">
         <v>275</v>
       </c>
       <c r="E53" s="3" t="s">
@@ -8410,7 +8425,7 @@
       <c r="C54" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D54" s="4" t="s">
+      <c r="D54" s="9" t="s">
         <v>392</v>
       </c>
       <c r="E54" s="3"/>
@@ -8424,7 +8439,7 @@
       <c r="C55" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D55" s="5" t="s">
+      <c r="D55" s="10" t="s">
         <v>393</v>
       </c>
       <c r="E55" s="3"/>
@@ -8436,7 +8451,7 @@
       <c r="C56" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D56" s="4" t="s">
+      <c r="D56" s="9" t="s">
         <v>394</v>
       </c>
       <c r="E56" s="3"/>
@@ -8448,7 +8463,7 @@
       <c r="C57" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D57" s="4" t="s">
+      <c r="D57" s="9" t="s">
         <v>395</v>
       </c>
       <c r="E57" s="3" t="s">
@@ -8466,7 +8481,7 @@
       <c r="C58" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D58" s="4" t="s">
+      <c r="D58" s="9" t="s">
         <v>397</v>
       </c>
       <c r="E58" s="3"/>
@@ -8480,7 +8495,7 @@
       <c r="C59" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D59" s="4" t="s">
+      <c r="D59" s="9" t="s">
         <v>398</v>
       </c>
       <c r="E59" s="3"/>
@@ -8492,7 +8507,7 @@
       <c r="C60" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D60" s="5" t="s">
+      <c r="D60" s="10" t="s">
         <v>399</v>
       </c>
       <c r="E60" s="3"/>
@@ -8504,7 +8519,7 @@
       <c r="C61" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D61" s="4" t="s">
+      <c r="D61" s="9" t="s">
         <v>107</v>
       </c>
       <c r="E61" s="3" t="s">
@@ -8522,7 +8537,7 @@
       <c r="C62" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D62" s="5" t="s">
+      <c r="D62" s="10" t="s">
         <v>401</v>
       </c>
       <c r="E62" s="3"/>
@@ -8536,7 +8551,7 @@
       <c r="C63" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D63" s="4" t="s">
+      <c r="D63" s="9" t="s">
         <v>402</v>
       </c>
       <c r="E63" s="3"/>
@@ -8548,7 +8563,7 @@
       <c r="C64" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D64" s="4" t="s">
+      <c r="D64" s="9" t="s">
         <v>274</v>
       </c>
       <c r="E64" s="3"/>
@@ -8560,7 +8575,7 @@
       <c r="C65" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D65" s="4" t="s">
+      <c r="D65" s="9" t="s">
         <v>275</v>
       </c>
       <c r="E65" s="3" t="s">
@@ -8578,7 +8593,7 @@
       <c r="C66" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D66" s="4" t="s">
+      <c r="D66" s="9" t="s">
         <v>404</v>
       </c>
       <c r="E66" s="3"/>
@@ -8592,7 +8607,7 @@
       <c r="C67" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D67" s="4" t="s">
+      <c r="D67" s="9" t="s">
         <v>405</v>
       </c>
       <c r="E67" s="3"/>
@@ -8604,7 +8619,7 @@
       <c r="C68" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D68" s="5" t="s">
+      <c r="D68" s="10" t="s">
         <v>406</v>
       </c>
       <c r="E68" s="3"/>
@@ -8616,7 +8631,7 @@
       <c r="C69" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D69" s="4" t="s">
+      <c r="D69" s="9" t="s">
         <v>107</v>
       </c>
       <c r="E69" s="3" t="s">
@@ -8634,7 +8649,7 @@
       <c r="C70" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D70" s="5" t="s">
+      <c r="D70" s="10" t="s">
         <v>408</v>
       </c>
       <c r="E70" s="3"/>
@@ -8648,7 +8663,7 @@
       <c r="C71" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D71" s="4" t="s">
+      <c r="D71" s="9" t="s">
         <v>409</v>
       </c>
       <c r="E71" s="3"/>
@@ -8660,7 +8675,7 @@
       <c r="C72" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D72" s="4" t="s">
+      <c r="D72" s="9" t="s">
         <v>410</v>
       </c>
       <c r="E72" s="3"/>
@@ -8672,7 +8687,7 @@
       <c r="C73" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D73" s="4" t="s">
+      <c r="D73" s="9" t="s">
         <v>216</v>
       </c>
       <c r="E73" s="3" t="s">
@@ -8752,7 +8767,7 @@
     <col min="1" max="1" width="5" customWidth="1"/>
     <col min="2" max="2" width="60" customWidth="1"/>
     <col min="3" max="3" width="6" customWidth="1"/>
-    <col min="4" max="4" width="60" customWidth="1"/>
+    <col min="4" max="4" width="60" customWidth="1" style="5"/>
     <col min="5" max="5" width="14" customWidth="1"/>
     <col min="6" max="6" width="10" customWidth="1"/>
   </cols>
@@ -8767,7 +8782,7 @@
       <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="6" t="s">
         <v>3</v>
       </c>
       <c r="E1" s="2" t="s">
@@ -8787,7 +8802,7 @@
       <c r="C2" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D2" s="8" t="s">
         <v>412</v>
       </c>
       <c r="E2" s="3"/>
@@ -8801,7 +8816,7 @@
       <c r="C3" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="D3" s="7" t="s">
         <v>413</v>
       </c>
       <c r="E3" s="3"/>
@@ -8813,7 +8828,7 @@
       <c r="C4" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="D4" s="7" t="s">
         <v>414</v>
       </c>
       <c r="E4" s="3"/>
@@ -8825,7 +8840,7 @@
       <c r="C5" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D5" s="4" t="s">
+      <c r="D5" s="7" t="s">
         <v>415</v>
       </c>
       <c r="E5" s="3" t="s">
@@ -8843,7 +8858,7 @@
       <c r="C6" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D6" s="4" t="s">
+      <c r="D6" s="9" t="s">
         <v>417</v>
       </c>
       <c r="E6" s="3"/>
@@ -8857,7 +8872,7 @@
       <c r="C7" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D7" s="4" t="s">
+      <c r="D7" s="9" t="s">
         <v>418</v>
       </c>
       <c r="E7" s="3"/>
@@ -8869,7 +8884,7 @@
       <c r="C8" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D8" s="5" t="s">
+      <c r="D8" s="10" t="s">
         <v>419</v>
       </c>
       <c r="E8" s="3"/>
@@ -8881,7 +8896,7 @@
       <c r="C9" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D9" s="4" t="s">
+      <c r="D9" s="9" t="s">
         <v>420</v>
       </c>
       <c r="E9" s="3" t="s">
@@ -8899,7 +8914,7 @@
       <c r="C10" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D10" s="4" t="s">
+      <c r="D10" s="9" t="s">
         <v>412</v>
       </c>
       <c r="E10" s="3"/>
@@ -8913,7 +8928,7 @@
       <c r="C11" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D11" s="5" t="s">
+      <c r="D11" s="10" t="s">
         <v>413</v>
       </c>
       <c r="E11" s="3"/>
@@ -8925,7 +8940,7 @@
       <c r="C12" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D12" s="4" t="s">
+      <c r="D12" s="9" t="s">
         <v>414</v>
       </c>
       <c r="E12" s="3"/>
@@ -8937,7 +8952,7 @@
       <c r="C13" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D13" s="4" t="s">
+      <c r="D13" s="9" t="s">
         <v>415</v>
       </c>
       <c r="E13" s="3" t="s">
@@ -8955,7 +8970,7 @@
       <c r="C14" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D14" s="4" t="s">
+      <c r="D14" s="9" t="s">
         <v>423</v>
       </c>
       <c r="E14" s="3"/>
@@ -8969,7 +8984,7 @@
       <c r="C15" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D15" s="5" t="s">
+      <c r="D15" s="10" t="s">
         <v>424</v>
       </c>
       <c r="E15" s="3"/>
@@ -8981,7 +8996,7 @@
       <c r="C16" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D16" s="4" t="s">
+      <c r="D16" s="9" t="s">
         <v>425</v>
       </c>
       <c r="E16" s="3"/>
@@ -8993,7 +9008,7 @@
       <c r="C17" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D17" s="4" t="s">
+      <c r="D17" s="9" t="s">
         <v>107</v>
       </c>
       <c r="E17" s="3" t="s">
@@ -9011,7 +9026,7 @@
       <c r="C18" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D18" s="5" t="s">
+      <c r="D18" s="10" t="s">
         <v>427</v>
       </c>
       <c r="E18" s="3"/>
@@ -9025,7 +9040,7 @@
       <c r="C19" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D19" s="4" t="s">
+      <c r="D19" s="9" t="s">
         <v>428</v>
       </c>
       <c r="E19" s="3"/>
@@ -9037,7 +9052,7 @@
       <c r="C20" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D20" s="4" t="s">
+      <c r="D20" s="9" t="s">
         <v>429</v>
       </c>
       <c r="E20" s="3"/>
@@ -9049,7 +9064,7 @@
       <c r="C21" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D21" s="4" t="s">
+      <c r="D21" s="9" t="s">
         <v>430</v>
       </c>
       <c r="E21" s="3" t="s">
@@ -9067,7 +9082,7 @@
       <c r="C22" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D22" s="4" t="s">
+      <c r="D22" s="9" t="s">
         <v>432</v>
       </c>
       <c r="E22" s="3"/>
@@ -9081,7 +9096,7 @@
       <c r="C23" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D23" s="5" t="s">
+      <c r="D23" s="10" t="s">
         <v>433</v>
       </c>
       <c r="E23" s="3"/>
@@ -9093,7 +9108,7 @@
       <c r="C24" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D24" s="4" t="s">
+      <c r="D24" s="9" t="s">
         <v>434</v>
       </c>
       <c r="E24" s="3"/>
@@ -9105,7 +9120,7 @@
       <c r="C25" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D25" s="4" t="s">
+      <c r="D25" s="9" t="s">
         <v>435</v>
       </c>
       <c r="E25" s="3" t="s">
@@ -9123,7 +9138,7 @@
       <c r="C26" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D26" s="4" t="s">
+      <c r="D26" s="9" t="s">
         <v>427</v>
       </c>
       <c r="E26" s="3"/>
@@ -9137,7 +9152,7 @@
       <c r="C27" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D27" s="5" t="s">
+      <c r="D27" s="10" t="s">
         <v>428</v>
       </c>
       <c r="E27" s="3"/>
@@ -9149,7 +9164,7 @@
       <c r="C28" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D28" s="4" t="s">
+      <c r="D28" s="9" t="s">
         <v>429</v>
       </c>
       <c r="E28" s="3"/>
@@ -9161,7 +9176,7 @@
       <c r="C29" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D29" s="4" t="s">
+      <c r="D29" s="9" t="s">
         <v>430</v>
       </c>
       <c r="E29" s="3" t="s">
@@ -9179,7 +9194,7 @@
       <c r="C30" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D30" s="4" t="s">
+      <c r="D30" s="9" t="s">
         <v>427</v>
       </c>
       <c r="E30" s="3"/>
@@ -9193,7 +9208,7 @@
       <c r="C31" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D31" s="4" t="s">
+      <c r="D31" s="9" t="s">
         <v>428</v>
       </c>
       <c r="E31" s="3"/>
@@ -9205,7 +9220,7 @@
       <c r="C32" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D32" s="4" t="s">
+      <c r="D32" s="9" t="s">
         <v>429</v>
       </c>
       <c r="E32" s="3"/>
@@ -9217,7 +9232,7 @@
       <c r="C33" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D33" s="5" t="s">
+      <c r="D33" s="10" t="s">
         <v>430</v>
       </c>
       <c r="E33" s="3" t="s">
@@ -9235,7 +9250,7 @@
       <c r="C34" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D34" s="4" t="s">
+      <c r="D34" s="9" t="s">
         <v>439</v>
       </c>
       <c r="E34" s="3"/>
@@ -9249,7 +9264,7 @@
       <c r="C35" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D35" s="5" t="s">
+      <c r="D35" s="10" t="s">
         <v>440</v>
       </c>
       <c r="E35" s="3"/>
@@ -9261,7 +9276,7 @@
       <c r="C36" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D36" s="4" t="s">
+      <c r="D36" s="9" t="s">
         <v>441</v>
       </c>
       <c r="E36" s="3"/>
@@ -9273,7 +9288,7 @@
       <c r="C37" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D37" s="4" t="s">
+      <c r="D37" s="9" t="s">
         <v>330</v>
       </c>
       <c r="E37" s="3" t="s">
@@ -9291,7 +9306,7 @@
       <c r="C38" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D38" s="4" t="s">
+      <c r="D38" s="9" t="s">
         <v>439</v>
       </c>
       <c r="E38" s="3"/>
@@ -9305,7 +9320,7 @@
       <c r="C39" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D39" s="4" t="s">
+      <c r="D39" s="9" t="s">
         <v>440</v>
       </c>
       <c r="E39" s="3"/>
@@ -9317,7 +9332,7 @@
       <c r="C40" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D40" s="5" t="s">
+      <c r="D40" s="10" t="s">
         <v>441</v>
       </c>
       <c r="E40" s="3"/>
@@ -9329,7 +9344,7 @@
       <c r="C41" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D41" s="4" t="s">
+      <c r="D41" s="9" t="s">
         <v>330</v>
       </c>
       <c r="E41" s="3" t="s">
@@ -9347,7 +9362,7 @@
       <c r="C42" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D42" s="4" t="s">
+      <c r="D42" s="9" t="s">
         <v>444</v>
       </c>
       <c r="E42" s="3"/>
@@ -9361,7 +9376,7 @@
       <c r="C43" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D43" s="5" t="s">
+      <c r="D43" s="10" t="s">
         <v>445</v>
       </c>
       <c r="E43" s="3"/>
@@ -9373,7 +9388,7 @@
       <c r="C44" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D44" s="4" t="s">
+      <c r="D44" s="9" t="s">
         <v>446</v>
       </c>
       <c r="E44" s="3"/>
@@ -9385,7 +9400,7 @@
       <c r="C45" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D45" s="4" t="s">
+      <c r="D45" s="9" t="s">
         <v>447</v>
       </c>
       <c r="E45" s="3" t="s">
@@ -9403,7 +9418,7 @@
       <c r="C46" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D46" s="4" t="s">
+      <c r="D46" s="9" t="s">
         <v>449</v>
       </c>
       <c r="E46" s="3"/>
@@ -9417,7 +9432,7 @@
       <c r="C47" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D47" s="4" t="s">
+      <c r="D47" s="9" t="s">
         <v>450</v>
       </c>
       <c r="E47" s="3"/>
@@ -9429,7 +9444,7 @@
       <c r="C48" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D48" s="5" t="s">
+      <c r="D48" s="10" t="s">
         <v>451</v>
       </c>
       <c r="E48" s="3"/>
@@ -9441,7 +9456,7 @@
       <c r="C49" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D49" s="4" t="s">
+      <c r="D49" s="9" t="s">
         <v>330</v>
       </c>
       <c r="E49" s="3" t="s">
@@ -9459,7 +9474,7 @@
       <c r="C50" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D50" s="4" t="s">
+      <c r="D50" s="9" t="s">
         <v>453</v>
       </c>
       <c r="E50" s="3"/>
@@ -9473,7 +9488,7 @@
       <c r="C51" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D51" s="4" t="s">
+      <c r="D51" s="9" t="s">
         <v>454</v>
       </c>
       <c r="E51" s="3"/>
@@ -9485,7 +9500,7 @@
       <c r="C52" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D52" s="4" t="s">
+      <c r="D52" s="9" t="s">
         <v>455</v>
       </c>
       <c r="E52" s="3"/>
@@ -9497,7 +9512,7 @@
       <c r="C53" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D53" s="5" t="s">
+      <c r="D53" s="10" t="s">
         <v>456</v>
       </c>
       <c r="E53" s="3" t="s">
@@ -9515,7 +9530,7 @@
       <c r="C54" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D54" s="5" t="s">
+      <c r="D54" s="10" t="s">
         <v>458</v>
       </c>
       <c r="E54" s="3"/>
@@ -9529,7 +9544,7 @@
       <c r="C55" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D55" s="4" t="s">
+      <c r="D55" s="9" t="s">
         <v>440</v>
       </c>
       <c r="E55" s="3"/>
@@ -9541,7 +9556,7 @@
       <c r="C56" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D56" s="4" t="s">
+      <c r="D56" s="9" t="s">
         <v>441</v>
       </c>
       <c r="E56" s="3"/>
@@ -9553,7 +9568,7 @@
       <c r="C57" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D57" s="4" t="s">
+      <c r="D57" s="9" t="s">
         <v>330</v>
       </c>
       <c r="E57" s="3" t="s">
@@ -9571,7 +9586,7 @@
       <c r="C58" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D58" s="4" t="s">
+      <c r="D58" s="9" t="s">
         <v>151</v>
       </c>
       <c r="E58" s="3"/>
@@ -9585,7 +9600,7 @@
       <c r="C59" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D59" s="5" t="s">
+      <c r="D59" s="10" t="s">
         <v>160</v>
       </c>
       <c r="E59" s="3"/>
@@ -9597,7 +9612,7 @@
       <c r="C60" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D60" s="4" t="s">
+      <c r="D60" s="9" t="s">
         <v>90</v>
       </c>
       <c r="E60" s="3"/>
@@ -9609,7 +9624,7 @@
       <c r="C61" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D61" s="4" t="s">
+      <c r="D61" s="9" t="s">
         <v>214</v>
       </c>
       <c r="E61" s="3" t="s">
@@ -9627,7 +9642,7 @@
       <c r="C62" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D62" s="4" t="s">
+      <c r="D62" s="9" t="s">
         <v>461</v>
       </c>
       <c r="E62" s="3"/>
@@ -9641,7 +9656,7 @@
       <c r="C63" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D63" s="4" t="s">
+      <c r="D63" s="9" t="s">
         <v>462</v>
       </c>
       <c r="E63" s="3"/>
@@ -9653,7 +9668,7 @@
       <c r="C64" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D64" s="5" t="s">
+      <c r="D64" s="10" t="s">
         <v>463</v>
       </c>
       <c r="E64" s="3"/>
@@ -9665,7 +9680,7 @@
       <c r="C65" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D65" s="4" t="s">
+      <c r="D65" s="9" t="s">
         <v>464</v>
       </c>
       <c r="E65" s="3" t="s">
@@ -9683,7 +9698,7 @@
       <c r="C66" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D66" s="4" t="s">
+      <c r="D66" s="9" t="s">
         <v>466</v>
       </c>
       <c r="E66" s="3"/>
@@ -9697,7 +9712,7 @@
       <c r="C67" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D67" s="4" t="s">
+      <c r="D67" s="9" t="s">
         <v>467</v>
       </c>
       <c r="E67" s="3"/>
@@ -9709,7 +9724,7 @@
       <c r="C68" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D68" s="5" t="s">
+      <c r="D68" s="10" t="s">
         <v>468</v>
       </c>
       <c r="E68" s="3"/>
@@ -9721,7 +9736,7 @@
       <c r="C69" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D69" s="4" t="s">
+      <c r="D69" s="9" t="s">
         <v>469</v>
       </c>
       <c r="E69" s="3" t="s">
@@ -9739,7 +9754,7 @@
       <c r="C70" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D70" s="5" t="s">
+      <c r="D70" s="10" t="s">
         <v>471</v>
       </c>
       <c r="E70" s="3"/>
@@ -9753,7 +9768,7 @@
       <c r="C71" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D71" s="4" t="s">
+      <c r="D71" s="9" t="s">
         <v>472</v>
       </c>
       <c r="E71" s="3"/>
@@ -9765,7 +9780,7 @@
       <c r="C72" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D72" s="4" t="s">
+      <c r="D72" s="9" t="s">
         <v>473</v>
       </c>
       <c r="E72" s="3"/>
@@ -9777,7 +9792,7 @@
       <c r="C73" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D73" s="4" t="s">
+      <c r="D73" s="9" t="s">
         <v>474</v>
       </c>
       <c r="E73" s="3" t="s">
@@ -9795,7 +9810,7 @@
       <c r="C74" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D74" s="5" t="s">
+      <c r="D74" s="10" t="s">
         <v>418</v>
       </c>
       <c r="E74" s="3"/>
@@ -9809,7 +9824,7 @@
       <c r="C75" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D75" s="4" t="s">
+      <c r="D75" s="9" t="s">
         <v>419</v>
       </c>
       <c r="E75" s="3"/>
@@ -9821,7 +9836,7 @@
       <c r="C76" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D76" s="4" t="s">
+      <c r="D76" s="9" t="s">
         <v>476</v>
       </c>
       <c r="E76" s="3"/>
@@ -9833,7 +9848,7 @@
       <c r="C77" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D77" s="4" t="s">
+      <c r="D77" s="9" t="s">
         <v>477</v>
       </c>
       <c r="E77" s="3" t="s">
@@ -9851,7 +9866,7 @@
       <c r="C78" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D78" s="5" t="s">
+      <c r="D78" s="10" t="s">
         <v>151</v>
       </c>
       <c r="E78" s="3"/>
@@ -9865,7 +9880,7 @@
       <c r="C79" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D79" s="4" t="s">
+      <c r="D79" s="9" t="s">
         <v>110</v>
       </c>
       <c r="E79" s="3"/>
@@ -9877,7 +9892,7 @@
       <c r="C80" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D80" s="4" t="s">
+      <c r="D80" s="9" t="s">
         <v>109</v>
       </c>
       <c r="E80" s="3"/>
@@ -9889,7 +9904,7 @@
       <c r="C81" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D81" s="4" t="s">
+      <c r="D81" s="9" t="s">
         <v>107</v>
       </c>
       <c r="E81" s="3" t="s">
@@ -9975,7 +9990,7 @@
     <col min="1" max="1" width="5" customWidth="1"/>
     <col min="2" max="2" width="60" customWidth="1"/>
     <col min="3" max="3" width="6" customWidth="1"/>
-    <col min="4" max="4" width="60" customWidth="1"/>
+    <col min="4" max="4" width="60" customWidth="1" style="5"/>
     <col min="5" max="5" width="14" customWidth="1"/>
     <col min="6" max="6" width="10" customWidth="1"/>
   </cols>
@@ -9990,7 +10005,7 @@
       <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="6" t="s">
         <v>3</v>
       </c>
       <c r="E1" s="2" t="s">
@@ -10010,7 +10025,7 @@
       <c r="C2" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="7" t="s">
         <v>480</v>
       </c>
       <c r="E2" s="3"/>
@@ -10024,7 +10039,7 @@
       <c r="C3" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="D3" s="7" t="s">
         <v>481</v>
       </c>
       <c r="E3" s="3"/>
@@ -10036,7 +10051,7 @@
       <c r="C4" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D4" s="5" t="s">
+      <c r="D4" s="8" t="s">
         <v>482</v>
       </c>
       <c r="E4" s="3"/>
@@ -10048,7 +10063,7 @@
       <c r="C5" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D5" s="4" t="s">
+      <c r="D5" s="7" t="s">
         <v>483</v>
       </c>
       <c r="E5" s="3" t="s">
@@ -10066,7 +10081,7 @@
       <c r="C6" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D6" s="4" t="s">
+      <c r="D6" s="9" t="s">
         <v>109</v>
       </c>
       <c r="E6" s="3"/>
@@ -10080,7 +10095,7 @@
       <c r="C7" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D7" s="4" t="s">
+      <c r="D7" s="9" t="s">
         <v>105</v>
       </c>
       <c r="E7" s="3"/>
@@ -10092,7 +10107,7 @@
       <c r="C8" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D8" s="5" t="s">
+      <c r="D8" s="10" t="s">
         <v>112</v>
       </c>
       <c r="E8" s="3"/>
@@ -10104,7 +10119,7 @@
       <c r="C9" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D9" s="4" t="s">
+      <c r="D9" s="9" t="s">
         <v>231</v>
       </c>
       <c r="E9" s="3" t="s">
@@ -10122,7 +10137,7 @@
       <c r="C10" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D10" s="4" t="s">
+      <c r="D10" s="9" t="s">
         <v>486</v>
       </c>
       <c r="E10" s="3"/>
@@ -10136,7 +10151,7 @@
       <c r="C11" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D11" s="4" t="s">
+      <c r="D11" s="9" t="s">
         <v>487</v>
       </c>
       <c r="E11" s="3"/>
@@ -10148,7 +10163,7 @@
       <c r="C12" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D12" s="4" t="s">
+      <c r="D12" s="9" t="s">
         <v>488</v>
       </c>
       <c r="E12" s="3"/>
@@ -10160,7 +10175,7 @@
       <c r="C13" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D13" s="5" t="s">
+      <c r="D13" s="10" t="s">
         <v>489</v>
       </c>
       <c r="E13" s="3" t="s">
@@ -10178,7 +10193,7 @@
       <c r="C14" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D14" s="5" t="s">
+      <c r="D14" s="10" t="s">
         <v>491</v>
       </c>
       <c r="E14" s="3"/>
@@ -10192,7 +10207,7 @@
       <c r="C15" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D15" s="4" t="s">
+      <c r="D15" s="9" t="s">
         <v>492</v>
       </c>
       <c r="E15" s="3"/>
@@ -10204,7 +10219,7 @@
       <c r="C16" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D16" s="4" t="s">
+      <c r="D16" s="9" t="s">
         <v>274</v>
       </c>
       <c r="E16" s="3"/>
@@ -10216,7 +10231,7 @@
       <c r="C17" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D17" s="4" t="s">
+      <c r="D17" s="9" t="s">
         <v>275</v>
       </c>
       <c r="E17" s="3" t="s">
@@ -10234,7 +10249,7 @@
       <c r="C18" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D18" s="4" t="s">
+      <c r="D18" s="9" t="s">
         <v>494</v>
       </c>
       <c r="E18" s="3"/>
@@ -10248,7 +10263,7 @@
       <c r="C19" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D19" s="4" t="s">
+      <c r="D19" s="9" t="s">
         <v>495</v>
       </c>
       <c r="E19" s="3"/>
@@ -10260,7 +10275,7 @@
       <c r="C20" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D20" s="4" t="s">
+      <c r="D20" s="9" t="s">
         <v>496</v>
       </c>
       <c r="E20" s="3"/>
@@ -10272,7 +10287,7 @@
       <c r="C21" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D21" s="5" t="s">
+      <c r="D21" s="10" t="s">
         <v>216</v>
       </c>
       <c r="E21" s="3" t="s">
@@ -10290,7 +10305,7 @@
       <c r="C22" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D22" s="4" t="s">
+      <c r="D22" s="9" t="s">
         <v>498</v>
       </c>
       <c r="E22" s="3"/>
@@ -10304,7 +10319,7 @@
       <c r="C23" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D23" s="4" t="s">
+      <c r="D23" s="9" t="s">
         <v>499</v>
       </c>
       <c r="E23" s="3"/>
@@ -10316,7 +10331,7 @@
       <c r="C24" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D24" s="5" t="s">
+      <c r="D24" s="10" t="s">
         <v>500</v>
       </c>
       <c r="E24" s="3"/>
@@ -10328,7 +10343,7 @@
       <c r="C25" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D25" s="4" t="s">
+      <c r="D25" s="9" t="s">
         <v>501</v>
       </c>
       <c r="E25" s="3" t="s">
@@ -10346,7 +10361,7 @@
       <c r="C26" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D26" s="4" t="s">
+      <c r="D26" s="9" t="s">
         <v>503</v>
       </c>
       <c r="E26" s="3"/>
@@ -10360,7 +10375,7 @@
       <c r="C27" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D27" s="4" t="s">
+      <c r="D27" s="9" t="s">
         <v>504</v>
       </c>
       <c r="E27" s="3"/>
@@ -10372,7 +10387,7 @@
       <c r="C28" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D28" s="5" t="s">
+      <c r="D28" s="10" t="s">
         <v>274</v>
       </c>
       <c r="E28" s="3"/>
@@ -10384,7 +10399,7 @@
       <c r="C29" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D29" s="4" t="s">
+      <c r="D29" s="9" t="s">
         <v>275</v>
       </c>
       <c r="E29" s="3" t="s">
@@ -10402,7 +10417,7 @@
       <c r="C30" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D30" s="4" t="s">
+      <c r="D30" s="9" t="s">
         <v>151</v>
       </c>
       <c r="E30" s="3"/>
@@ -10416,7 +10431,7 @@
       <c r="C31" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D31" s="5" t="s">
+      <c r="D31" s="10" t="s">
         <v>233</v>
       </c>
       <c r="E31" s="3"/>
@@ -10428,7 +10443,7 @@
       <c r="C32" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D32" s="4" t="s">
+      <c r="D32" s="9" t="s">
         <v>506</v>
       </c>
       <c r="E32" s="3"/>
@@ -10440,7 +10455,7 @@
       <c r="C33" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D33" s="4" t="s">
+      <c r="D33" s="9" t="s">
         <v>507</v>
       </c>
       <c r="E33" s="3" t="s">
@@ -10458,7 +10473,7 @@
       <c r="C34" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D34" s="4" t="s">
+      <c r="D34" s="9" t="s">
         <v>509</v>
       </c>
       <c r="E34" s="3"/>
@@ -10472,7 +10487,7 @@
       <c r="C35" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D35" s="4" t="s">
+      <c r="D35" s="9" t="s">
         <v>510</v>
       </c>
       <c r="E35" s="3"/>
@@ -10484,7 +10499,7 @@
       <c r="C36" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D36" s="4" t="s">
+      <c r="D36" s="9" t="s">
         <v>511</v>
       </c>
       <c r="E36" s="3"/>
@@ -10496,7 +10511,7 @@
       <c r="C37" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D37" s="5" t="s">
+      <c r="D37" s="10" t="s">
         <v>216</v>
       </c>
       <c r="E37" s="3" t="s">
@@ -10514,7 +10529,7 @@
       <c r="C38" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D38" s="5" t="s">
+      <c r="D38" s="10" t="s">
         <v>513</v>
       </c>
       <c r="E38" s="3"/>
@@ -10528,7 +10543,7 @@
       <c r="C39" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D39" s="4" t="s">
+      <c r="D39" s="9" t="s">
         <v>514</v>
       </c>
       <c r="E39" s="3"/>
@@ -10540,7 +10555,7 @@
       <c r="C40" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D40" s="4" t="s">
+      <c r="D40" s="9" t="s">
         <v>515</v>
       </c>
       <c r="E40" s="3"/>
@@ -10552,7 +10567,7 @@
       <c r="C41" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D41" s="4" t="s">
+      <c r="D41" s="9" t="s">
         <v>516</v>
       </c>
       <c r="E41" s="3" t="s">
@@ -10570,7 +10585,7 @@
       <c r="C42" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D42" s="4" t="s">
+      <c r="D42" s="9" t="s">
         <v>518</v>
       </c>
       <c r="E42" s="3"/>
@@ -10584,7 +10599,7 @@
       <c r="C43" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D43" s="4" t="s">
+      <c r="D43" s="9" t="s">
         <v>519</v>
       </c>
       <c r="E43" s="3"/>
@@ -10596,7 +10611,7 @@
       <c r="C44" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D44" s="4" t="s">
+      <c r="D44" s="9" t="s">
         <v>274</v>
       </c>
       <c r="E44" s="3"/>
@@ -10608,7 +10623,7 @@
       <c r="C45" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D45" s="5" t="s">
+      <c r="D45" s="10" t="s">
         <v>275</v>
       </c>
       <c r="E45" s="3" t="s">
@@ -10626,7 +10641,7 @@
       <c r="C46" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D46" s="4" t="s">
+      <c r="D46" s="9" t="s">
         <v>521</v>
       </c>
       <c r="E46" s="3"/>
@@ -10640,7 +10655,7 @@
       <c r="C47" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D47" s="4" t="s">
+      <c r="D47" s="9" t="s">
         <v>522</v>
       </c>
       <c r="E47" s="3"/>
@@ -10652,7 +10667,7 @@
       <c r="C48" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D48" s="5" t="s">
+      <c r="D48" s="10" t="s">
         <v>523</v>
       </c>
       <c r="E48" s="3"/>
@@ -10664,7 +10679,7 @@
       <c r="C49" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D49" s="4" t="s">
+      <c r="D49" s="9" t="s">
         <v>524</v>
       </c>
       <c r="E49" s="3" t="s">
@@ -10682,7 +10697,7 @@
       <c r="C50" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D50" s="4" t="s">
+      <c r="D50" s="9" t="s">
         <v>19</v>
       </c>
       <c r="E50" s="3"/>
@@ -10696,7 +10711,7 @@
       <c r="C51" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D51" s="4" t="s">
+      <c r="D51" s="9" t="s">
         <v>526</v>
       </c>
       <c r="E51" s="3"/>
@@ -10708,7 +10723,7 @@
       <c r="C52" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D52" s="4" t="s">
+      <c r="D52" s="9" t="s">
         <v>106</v>
       </c>
       <c r="E52" s="3"/>
@@ -10720,7 +10735,7 @@
       <c r="C53" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D53" s="5" t="s">
+      <c r="D53" s="10" t="s">
         <v>527</v>
       </c>
       <c r="E53" s="3" t="s">
@@ -10738,7 +10753,7 @@
       <c r="C54" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D54" s="4" t="s">
+      <c r="D54" s="9" t="s">
         <v>529</v>
       </c>
       <c r="E54" s="3"/>
@@ -10752,7 +10767,7 @@
       <c r="C55" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D55" s="4" t="s">
+      <c r="D55" s="9" t="s">
         <v>530</v>
       </c>
       <c r="E55" s="3"/>
@@ -10764,7 +10779,7 @@
       <c r="C56" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D56" s="4" t="s">
+      <c r="D56" s="9" t="s">
         <v>531</v>
       </c>
       <c r="E56" s="3"/>
@@ -10776,7 +10791,7 @@
       <c r="C57" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D57" s="5" t="s">
+      <c r="D57" s="10" t="s">
         <v>532</v>
       </c>
       <c r="E57" s="3" t="s">
@@ -10794,7 +10809,7 @@
       <c r="C58" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D58" s="4" t="s">
+      <c r="D58" s="9" t="s">
         <v>534</v>
       </c>
       <c r="E58" s="3"/>
@@ -10808,7 +10823,7 @@
       <c r="C59" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D59" s="4" t="s">
+      <c r="D59" s="9" t="s">
         <v>535</v>
       </c>
       <c r="E59" s="3"/>
@@ -10820,7 +10835,7 @@
       <c r="C60" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D60" s="4" t="s">
+      <c r="D60" s="9" t="s">
         <v>536</v>
       </c>
       <c r="E60" s="3"/>
@@ -10832,7 +10847,7 @@
       <c r="C61" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D61" s="5" t="s">
+      <c r="D61" s="10" t="s">
         <v>537</v>
       </c>
       <c r="E61" s="3" t="s">
@@ -10850,7 +10865,7 @@
       <c r="C62" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D62" s="4" t="s">
+      <c r="D62" s="9" t="s">
         <v>539</v>
       </c>
       <c r="E62" s="3"/>
@@ -10864,7 +10879,7 @@
       <c r="C63" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D63" s="4" t="s">
+      <c r="D63" s="9" t="s">
         <v>540</v>
       </c>
       <c r="E63" s="3"/>
@@ -10876,7 +10891,7 @@
       <c r="C64" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D64" s="4" t="s">
+      <c r="D64" s="9" t="s">
         <v>541</v>
       </c>
       <c r="E64" s="3"/>
@@ -10888,7 +10903,7 @@
       <c r="C65" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D65" s="5" t="s">
+      <c r="D65" s="10" t="s">
         <v>542</v>
       </c>
       <c r="E65" s="3" t="s">
@@ -10906,7 +10921,7 @@
       <c r="C66" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D66" s="4" t="s">
+      <c r="D66" s="9" t="s">
         <v>544</v>
       </c>
       <c r="E66" s="3"/>
@@ -10920,7 +10935,7 @@
       <c r="C67" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D67" s="4" t="s">
+      <c r="D67" s="9" t="s">
         <v>545</v>
       </c>
       <c r="E67" s="3"/>
@@ -10932,7 +10947,7 @@
       <c r="C68" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D68" s="4" t="s">
+      <c r="D68" s="9" t="s">
         <v>546</v>
       </c>
       <c r="E68" s="3"/>
@@ -10944,7 +10959,7 @@
       <c r="C69" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D69" s="5" t="s">
+      <c r="D69" s="10" t="s">
         <v>547</v>
       </c>
       <c r="E69" s="3" t="s">
@@ -10962,7 +10977,7 @@
       <c r="C70" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D70" s="4" t="s">
+      <c r="D70" s="9" t="s">
         <v>549</v>
       </c>
       <c r="E70" s="3"/>
@@ -10976,7 +10991,7 @@
       <c r="C71" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D71" s="4" t="s">
+      <c r="D71" s="9" t="s">
         <v>550</v>
       </c>
       <c r="E71" s="3"/>
@@ -10988,7 +11003,7 @@
       <c r="C72" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D72" s="5" t="s">
+      <c r="D72" s="10" t="s">
         <v>274</v>
       </c>
       <c r="E72" s="3"/>
@@ -11000,7 +11015,7 @@
       <c r="C73" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D73" s="4" t="s">
+      <c r="D73" s="9" t="s">
         <v>551</v>
       </c>
       <c r="E73" s="3" t="s">
@@ -11018,7 +11033,7 @@
       <c r="C74" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D74" s="4" t="s">
+      <c r="D74" s="9" t="s">
         <v>151</v>
       </c>
       <c r="E74" s="3"/>
@@ -11032,7 +11047,7 @@
       <c r="C75" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D75" s="4" t="s">
+      <c r="D75" s="9" t="s">
         <v>233</v>
       </c>
       <c r="E75" s="3"/>
@@ -11044,7 +11059,7 @@
       <c r="C76" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D76" s="4" t="s">
+      <c r="D76" s="9" t="s">
         <v>506</v>
       </c>
       <c r="E76" s="3"/>
@@ -11056,7 +11071,7 @@
       <c r="C77" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D77" s="5" t="s">
+      <c r="D77" s="10" t="s">
         <v>507</v>
       </c>
       <c r="E77" s="3" t="s">
@@ -11139,7 +11154,7 @@
     <col min="1" max="1" width="5" customWidth="1"/>
     <col min="2" max="2" width="60" customWidth="1"/>
     <col min="3" max="3" width="6" customWidth="1"/>
-    <col min="4" max="4" width="60" customWidth="1"/>
+    <col min="4" max="4" width="60" customWidth="1" style="5"/>
     <col min="5" max="5" width="14" customWidth="1"/>
     <col min="6" max="6" width="10" customWidth="1"/>
   </cols>
@@ -11154,7 +11169,7 @@
       <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="6" t="s">
         <v>3</v>
       </c>
       <c r="E1" s="2" t="s">
@@ -11174,7 +11189,7 @@
       <c r="C2" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="7" t="s">
         <v>554</v>
       </c>
       <c r="E2" s="3"/>
@@ -11188,7 +11203,7 @@
       <c r="C3" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="D3" s="7" t="s">
         <v>555</v>
       </c>
       <c r="E3" s="3"/>
@@ -11200,7 +11215,7 @@
       <c r="C4" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="D4" s="7" t="s">
         <v>556</v>
       </c>
       <c r="E4" s="3"/>
@@ -11212,7 +11227,7 @@
       <c r="C5" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D5" s="5" t="s">
+      <c r="D5" s="8" t="s">
         <v>557</v>
       </c>
       <c r="E5" s="3" t="s">
@@ -11230,7 +11245,7 @@
       <c r="C6" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D6" s="5" t="s">
+      <c r="D6" s="10" t="s">
         <v>559</v>
       </c>
       <c r="E6" s="3"/>
@@ -11244,7 +11259,7 @@
       <c r="C7" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D7" s="4" t="s">
+      <c r="D7" s="9" t="s">
         <v>560</v>
       </c>
       <c r="E7" s="3"/>
@@ -11256,7 +11271,7 @@
       <c r="C8" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D8" s="4" t="s">
+      <c r="D8" s="9" t="s">
         <v>561</v>
       </c>
       <c r="E8" s="3"/>
@@ -11268,7 +11283,7 @@
       <c r="C9" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D9" s="4" t="s">
+      <c r="D9" s="9" t="s">
         <v>562</v>
       </c>
       <c r="E9" s="3" t="s">

--- a/CurriculumManagementSystemWebAPI/QuizExported.xlsx
+++ b/CurriculumManagementSystemWebAPI/QuizExported.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
   <si>
     <t>NO</t>
   </si>
@@ -73,6 +73,30 @@
   </si>
   <si>
     <t>Tất cả đáp án đều sai</t>
+  </si>
+  <si>
+    <t>Nguyen Ngoc Hoan ?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nguyen </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ngoc </t>
+  </si>
+  <si>
+    <t>Hoan</t>
+  </si>
+  <si>
+    <t>?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nguyen Ngoc Hoan
+Ngoc Hoan
+Hoan
+?</t>
+  </si>
+  <si>
+    <t>123</t>
   </si>
 </sst>
 </file>
@@ -169,7 +193,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:F17"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -315,6 +339,118 @@
       </c>
       <c r="F9" s="4"/>
     </row>
+    <row r="10">
+      <c r="A10" s="3">
+        <v>3</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D10" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="E10" s="3"/>
+      <c r="F10" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="3"/>
+      <c r="B11" s="4"/>
+      <c r="C11" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D11" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="E11" s="3"/>
+      <c r="F11" s="4"/>
+    </row>
+    <row r="12">
+      <c r="A12" s="3"/>
+      <c r="B12" s="4"/>
+      <c r="C12" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D12" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="E12" s="3"/>
+      <c r="F12" s="4"/>
+    </row>
+    <row r="13">
+      <c r="A13" s="3"/>
+      <c r="B13" s="4"/>
+      <c r="C13" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D13" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F13" s="4"/>
+    </row>
+    <row r="14">
+      <c r="A14" s="3">
+        <v>4</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D14" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="E14" s="3"/>
+      <c r="F14" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="3"/>
+      <c r="B15" s="4"/>
+      <c r="C15" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D15" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="E15" s="3"/>
+      <c r="F15" s="4"/>
+    </row>
+    <row r="16">
+      <c r="A16" s="3"/>
+      <c r="B16" s="4"/>
+      <c r="C16" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D16" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="E16" s="3"/>
+      <c r="F16" s="4"/>
+    </row>
+    <row r="17">
+      <c r="A17" s="3"/>
+      <c r="B17" s="4"/>
+      <c r="C17" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D17" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F17" s="4"/>
+    </row>
   </sheetData>
   <mergeCells>
     <mergeCell ref="A2:A5"/>
@@ -323,6 +459,12 @@
     <mergeCell ref="A6:A9"/>
     <mergeCell ref="B6:B9"/>
     <mergeCell ref="F6:F9"/>
+    <mergeCell ref="A10:A13"/>
+    <mergeCell ref="B10:B13"/>
+    <mergeCell ref="F10:F13"/>
+    <mergeCell ref="A14:A17"/>
+    <mergeCell ref="B14:B17"/>
+    <mergeCell ref="F14:F17"/>
   </mergeCells>
   <headerFooter/>
 </worksheet>
